--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_makuma2.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_makuma2.xlsx
@@ -998,7 +998,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>if_flag(chitsii.arena.player.bottle_choice, ==2)</t>
+          <t>if_flag(chitsii.arena.player.bottle_choice, ==1)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1013,6 +1013,21 @@
           <t>scene2_crafting</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.bottle_choice, ==0)</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1663,7 +1678,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.lily_bottle_confession,1</t>
+          <t>chitsii.arena.player.lily_bottle_confession,0</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1855,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.lily_bottle_confession,2</t>
+          <t>chitsii.arena.player.lily_bottle_confession,1</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1991,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.lily_bottle_confession,3</t>
+          <t>chitsii.arena.player.lily_bottle_confession,2</t>
         </is>
       </c>
     </row>
@@ -2392,7 +2407,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>if_flag(chitsii.arena.player.kain_soul_choice, ==2)</t>
+          <t>if_flag(chitsii.arena.player.kain_soul_choice, ==1)</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -2407,6 +2422,21 @@
           <t>after_kain</t>
         </is>
       </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.kain_soul_choice, ==0)</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2777,7 +2807,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.kain_soul_confession,1</t>
+          <t>chitsii.arena.player.kain_soul_confession,0</t>
         </is>
       </c>
     </row>
@@ -2954,7 +2984,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.kain_soul_confession,2</t>
+          <t>chitsii.arena.player.kain_soul_confession,1</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_makuma2.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_makuma2.xlsx
@@ -3505,7 +3505,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>for(int i=0; i&lt;30; i++) { EClass.pc.Pick(ThingGen.Create(\"coin\")); } for(int i=0; i&lt;15; i++) { EClass.pc.Pick(ThingGen.Create(\"plat\")); }</t>
+          <t>for(int i=0; i&lt;30; i++) { EClass.pc.Pick(ThingGen.Create(\"money\")); } for(int i=0; i&lt;15; i++) { EClass.pc.Pick(ThingGen.Create(\"plat\")); }</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_makuma2.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_makuma2.xlsx
@@ -993,7 +993,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>invoke*</t>
+          <t>modInvoke</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1013,21 +1013,6 @@
           <t>scene2_crafting</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.bottle_choice, ==0)</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2402,7 +2387,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>invoke*</t>
+          <t>modInvoke</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -2420,21 +2405,6 @@
       <c r="B120" t="inlineStr">
         <is>
           <t>after_kain</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.kain_soul_choice, ==0)</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>pc</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_makuma2.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_makuma2.xlsx
@@ -993,7 +993,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1013,6 +1013,21 @@
           <t>scene2_crafting</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.bottle_choice, ==0)</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2387,7 +2402,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -2405,6 +2420,21 @@
       <c r="B120" t="inlineStr">
         <is>
           <t>after_kain</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.kain_soul_choice, ==0)</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_makuma2.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_makuma2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K186"/>
+  <dimension ref="A1:K177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,38 +498,53 @@
       </c>
     </row>
     <row r="8">
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>narr_1</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>（最近、アリーナ全体を断続的な震動が襲っている。）</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>（最近、アリーナ全体を断続的な震動が襲っている。）</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="D9" t="inlineStr">
         <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>narr_2</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>（それは観客の喝采によるものではなく、あなたの強大すぎる存在感に、異次元の構造自体が悲鳴を上げているのだ。）</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>（それは観客の喝采によるものではなく、あなたの強大すぎる存在感に、異次元の構造自体が悲鳴を上げているのだ。）</t>
         </is>
       </c>
     </row>
@@ -541,68 +556,83 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>narr_1</t>
+          <t>narr_3</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>（最近、アリーナ全体を断続的な震動が襲っている。）</t>
+          <t>（リリィはカウンターの奥で、幾重にも重なった複雑な魔法幾何学の設計図と格闘していた。）</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>（最近、アリーナ全体を断続的な震動が襲っている。）</t>
+          <t>（リリィはカウンターの奥で、幾重にも重なった複雑な魔法幾何学の設計図と格闘していた。）</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>narr_4</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>（彼女の瞳には、これまでにない焦燥と、それ以上の『愉悦』が宿っている。）</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>（彼女の瞳には、これまでにない焦燥と、それ以上の『愉悦』が宿っている。）</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="F13" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>narr_2</t>
+          <t>lily_1</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>（それは観客の喝采によるものではなく、あなたの強大すぎる存在感に、異次元の構造自体が悲鳴を上げているのだ。）</t>
+          <t>……あぁ、困りました。あなたの魂が放つ『重力』が、このアリーナの許容量を超え始めています。</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>（それは観客の喝采によるものではなく、あなたの強大すぎる存在感に、異次元の構造自体が悲鳴を上げているのだ。）</t>
+          <t>……あぁ、困りました。あなたの魂が放つ『重力』が、このアリーナの許容量を超え始めています。</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="F14" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>narr_3</t>
+          <t>lily_2</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>（リリィはカウンターの奥で、幾重にも重なった複雑な魔法幾何学の設計図と格闘していた。）</t>
+          <t>このままでは、次の昇格試験を迎える前に、この空間ごと虚無の彼方へ霧散してしまうわ。</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>（リリィはカウンターの奥で、幾重にも重なった複雑な魔法幾何学の設計図と格闘していた。）</t>
+          <t>このままでは、次の昇格試験を迎える前に、この空間ごと虚無の彼方へ霧散してしまうわ。</t>
         </is>
       </c>
     </row>
@@ -614,17 +644,17 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>narr_4</t>
+          <t>narr_5</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>（彼女の瞳には、これまでにない焦燥と、それ以上の『愉悦』が宿っている。）</t>
+          <t>（彼女は設計図をあなたの前に広げる。）</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>（彼女の瞳には、これまでにない焦燥と、それ以上の『愉悦』が宿っている。）</t>
+          <t>（彼女は設計図をあなたの前に広げる。）</t>
         </is>
       </c>
     </row>
@@ -636,17 +666,17 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>lily_1</t>
+          <t>lily_3</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>……あぁ、困りました。あなたの魂が放つ『重力』が、このアリーナの許容量を超え始めています。</t>
+          <t>そこで、あなたの手でこれを作りなさい。アリーナの動力源を安定させるための楔……**『虚空の心臓（ヴォイド・コア）』**を。</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>……あぁ、困りました。あなたの魂が放つ『重力』が、このアリーナの許容量を超え始めています。</t>
+          <t>そこで、あなたの手でこれを作りなさい。アリーナの動力源を安定させるための楔……**『虚空の心臓（ヴォイド・コア）』**を。</t>
         </is>
       </c>
     </row>
@@ -658,39 +688,39 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>lily_2</t>
+          <t>lily_4</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>このままでは、次の昇格試験を迎える前に、この空間ごと虚無の彼方へ霧散してしまうわ。</t>
+          <t>これは単なる機械でも石細工でもありません。あなたの『魔力』と『技術』、そしてこのアリーナに満ちる『死者の嘆き』を一つに鋳造する、究極の工芸品です。</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>このままでは、次の昇格試験を迎える前に、この空間ごと虚無の彼方へ霧散してしまうわ。</t>
+          <t>これは単なる機械でも石細工でもありません。あなたの『魔力』と『技術』、そしてこのアリーナに満ちる『死者の嘆き』を一つに鋳造する、究極の工芸品です。</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="F18" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>narr_5</t>
+          <t>lily_5</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>（彼女は設計図をあなたの前に広げる。）</t>
+          <t>『高品質な宝石』、『エーテルの結晶』、そしてゼクの店に並ぶ**『星の断片』**……。これらを『宝石細工』または『機械製作』の極致で練り上げ、一つの心臓として拍動させなさい。</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>（彼女は設計図をあなたの前に広げる。）</t>
+          <t>『高品質な宝石』、『エーテルの結晶』、そしてゼクの店に並ぶ**『星の断片』**……。これらを『宝石細工』または『機械製作』の極致で練り上げ、一つの心臓として拍動させなさい。</t>
         </is>
       </c>
     </row>
@@ -702,178 +732,148 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>lily_3</t>
+          <t>lily_6</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>そこで、あなたの手でこれを作りなさい。アリーナの動力源を安定させるための楔……**『虚空の心臓（ヴォイド・コア）』**を。</t>
+          <t>……ふふ、これが完成した時、あなたはこの場所と文字通り『一心同体』になる。ランクAへの道は、そこからしか開かれません。</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>そこで、あなたの手でこれを作りなさい。アリーナの動力源を安定させるための楔……**『虚空の心臓（ヴォイド・コア）』**を。</t>
+          <t>……ふふ、これが完成した時、あなたはこの場所と文字通り『一心同体』になる。ランクAへの道は、そこからしか開かれません。</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>lily_4</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>これは単なる機械でも石細工でもありません。あなたの『魔力』と『技術』、そしてこのアリーナに満ちる『死者の嘆き』を一つに鋳造する、究極の工芸品です。</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>これは単なる機械でも石細工でもありません。あなたの『魔力』と『技術』、そしてこのアリーナに満ちる『死者の嘆き』を一つに鋳造する、究極の工芸品です。</t>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>choice1</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>react1_accept</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>lily_5</t>
+          <t>c1_accept</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>『高品質な宝石』、『エーテルの結晶』、そしてゼクの店に並ぶ**『星の断片』**……。これらを『宝石細工』または『機械製作』の極致で練り上げ、一つの心臓として拍動させなさい。</t>
+          <t>分かった。作ろう</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>『高品質な宝石』、『エーテルの結晶』、そしてゼクの店に並ぶ**『星の断片』**……。これらを『宝石細工』または『機械製作』の極致で練り上げ、一つの心臓として拍動させなさい。</t>
+          <t>分かった。作ろう</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>react1_soul</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>lily_6</t>
+          <t>c1_soul</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>……ふふ、これが完成した時、あなたはこの場所と文字通り『一心同体』になる。ランクAへの道は、そこからしか開かれません。</t>
+          <t>俺の魂がアリーナを壊すのか……？</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>……ふふ、これが完成した時、あなたはこの場所と文字通り『一心同体』になる。ランクAへの道は、そこからしか開かれません。</t>
+          <t>俺の魂がアリーナを壊すのか……？</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>choice1</t>
+          <t>react1_silent</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>c1_silent</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>（無言で設計図を見つめる）</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>（無言で設計図を見つめる）</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>react1_accept</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>c1_accept</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>分かった。作ろう</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>分かった。作ろう</t>
-        </is>
-      </c>
     </row>
     <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>react1_soul</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>c1_soul</t>
+          <t>lily_r1</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>俺の魂がアリーナを壊すのか……？</t>
+          <t>ふふ、素直ですこと。では、材料を集めてきてくださいね。</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>俺の魂がアリーナを壊すのか……？</t>
+          <t>ふふ、素直ですこと。では、材料を集めてきてくださいね。</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>react1_silent</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>c1_silent</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>（無言で設計図を見つめる）</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>（無言で設計図を見つめる）</t>
+          <t>check_bottle</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>react1_accept</t>
+          <t>react1_soul</t>
         </is>
       </c>
     </row>
@@ -885,17 +885,17 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>lily_r1</t>
+          <t>lily_r2</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>ふふ、素直ですこと。では、材料を集めてきてくださいね。</t>
+          <t>ええ。あなたは既に、この異次元の限界を超え始めています。</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>ふふ、素直ですこと。では、材料を集めてきてくださいね。</t>
+          <t>ええ。あなたは既に、この異次元の限界を超え始めています。</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>react1_soul</t>
+          <t>react1_silent</t>
         </is>
       </c>
     </row>
@@ -921,17 +921,17 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>lily_r2</t>
+          <t>lily_r3</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>ええ。あなたは既に、この異次元の限界を超え始めています。</t>
+          <t>……難しそうに見えますが、あなたなら作れます。信じていますよ。</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>ええ。あなたは既に、この異次元の限界を超え始めています。</t>
+          <t>……難しそうに見えますが、あなたなら作れます。信じていますよ。</t>
         </is>
       </c>
     </row>
@@ -945,106 +945,136 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>react1_silent</t>
+          <t>check_bottle</t>
         </is>
       </c>
     </row>
     <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>bottle_event</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.bottle_choice, ==1)</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>lily_r3</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>……難しそうに見えますが、あなたなら作れます。信じていますよ。</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>……難しそうに見えますが、あなたなら作れます。信じていますよ。</t>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>check_bottle</t>
+          <t>scene2_crafting</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.bottle_choice, ==0)</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>check_bottle</t>
+          <t>bottle_event</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>bottle_event</t>
-        </is>
-      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>invoke*</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>if_flag(chitsii.arena.player.bottle_choice, ==1)</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>scene2_crafting</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.bottle_choice, ==0)</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>narr_6</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>（リリィが設計図を広げる中、彼女は棚の奥から、以前あなたが製作した『虚空の共鳴瓶』を取り出した。）</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>（リリィが設計図を広げる中、彼女は棚の奥から、以前あなたが製作した『虚空の共鳴瓶』を取り出した。）</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>bottle_event</t>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>lily_7</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>……虚空の心臓を起動させる前に、この共鳴瓶で次元の『周波数』を測定する必要があります。</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>……虚空の心臓を起動させる前に、この共鳴瓶で次元の『周波数』を測定する必要があります。</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>lily_8</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>あなたが作ってくれたこの器……今まで完璧に機能していたのだけれど。</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>あなたが作ってくれたこの器……今まで完璧に機能していたのだけれど。</t>
         </is>
       </c>
     </row>
@@ -1056,39 +1086,24 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>narr_6</t>
+          <t>narr_7</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>（リリィが設計図を広げる中、彼女は棚の奥から、以前あなたが製作した『虚空の共鳴瓶』を取り出した。）</t>
+          <t>（リリィが瓶に魔力を流し込むと、瓶の表面に不吉な亀裂が走る。）</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>（リリィが設計図を広げる中、彼女は棚の奥から、以前あなたが製作した『虚空の共鳴瓶』を取り出した。）</t>
+          <t>（リリィが瓶に魔力を流し込むと、瓶の表面に不吉な亀裂が走る。）</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>lily_7</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>……虚空の心臓を起動させる前に、この共鳴瓶で次元の『周波数』を測定する必要があります。</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>……虚空の心臓を起動させる前に、この共鳴瓶で次元の『周波数』を測定する必要があります。</t>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
@@ -1100,17 +1115,17 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>lily_8</t>
+          <t>lily_9</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>あなたが作ってくれたこの器……今まで完璧に機能していたのだけれど。</t>
+          <t>……！？ なに、これ……内部構造が崩壊している……！？</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>あなたが作ってくれたこの器……今まで完璧に機能していたのだけれど。</t>
+          <t>……！？ なに、これ……内部構造が崩壊している……！？</t>
         </is>
       </c>
     </row>
@@ -1122,24 +1137,39 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>narr_7</t>
+          <t>narr_8</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>（リリィが瓶に魔力を流し込むと、瓶の表面に不吉な亀裂が走る。）</t>
+          <t>（瓶から黒い霧が噴き出し、ロビー全体を覆い始める。）</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>（リリィが瓶に魔力を流し込むと、瓶の表面に不吉な亀裂が走る。）</t>
+          <t>（瓶から黒い霧が噴き出し、ロビー全体を覆い始める。）</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>narr_9</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>（霧の中から、これまでアリーナで死んでいった闘士たちの怨念が、おぞましい人型の影となって実体化していく。）</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>（霧の中から、これまでアリーナで死んでいった闘士たちの怨念が、おぞましい人型の影となって実体化していく。）</t>
         </is>
       </c>
     </row>
@@ -1151,141 +1181,141 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>lily_9</t>
+          <t>lily_10</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>……！？ なに、これ……内部構造が崩壊している……！？</t>
+          <t>くっ……この瓶、まさか……！ 誰かが構造を改竄（かいざん）している……！</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>……！？ なに、これ……内部構造が崩壊している……！？</t>
+          <t>くっ……この瓶、まさか……！ 誰かが構造を改竄（かいざん）している……！</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="F47" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>narr_8</t>
+          <t>lily_11</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>（瓶から黒い霧が噴き出し、ロビー全体を覆い始める。）</t>
+          <t>このままでは、溜め込んだ死者の残響が暴走して、アリーナごと呑み込まれるわ！</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>（瓶から黒い霧が噴き出し、ロビー全体を覆い始める。）</t>
+          <t>このままでは、溜め込んだ死者の残響が暴走して、アリーナごと呑み込まれるわ！</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>narr_9</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>（霧の中から、これまでアリーナで死んでいった闘士たちの怨念が、おぞましい人型の影となって実体化していく。）</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>（霧の中から、これまでアリーナで死んでいった闘士たちの怨念が、おぞましい人型の影となって実体化していく。）</t>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>bottle_battle</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>lily_10</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>くっ……この瓶、まさか……！ 誰かが構造を改竄（かいざん）している……！</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>くっ……この瓶、まさか……！ 誰かが構造を改竄（かいざん）している……！</t>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>bottle_battle</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="F50" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>lily_11</t>
+          <t>narr_10</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>このままでは、溜め込んだ死者の残響が暴走して、アリーナごと呑み込まれるわ！</t>
+          <t>（プレースホルダー：暴走した怨念の影との戦闘が発生する。）</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>このままでは、溜め込んだ死者の残響が暴走して、アリーナごと呑み込まれるわ！</t>
+          <t>（プレースホルダー：暴走した怨念の影との戦闘が発生する。）</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>bottle_battle</t>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>narr_11</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>（リリィは息を切らしながら、砕け散った偽物の瓶の破片を拾い上げる。）</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>（リリィは息を切らしながら、砕け散った偽物の瓶の破片を拾い上げる。）</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>bottle_battle</t>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>narr_12</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>（その断面には、ゼク特有の『影の刻印』が刻まれていた。）</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>（その断面には、ゼク特有の『影の刻印』が刻まれていた。）</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>narr_10</t>
+          <t>lily_12</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>（プレースホルダー：暴走した怨念の影との戦闘が発生する。）</t>
+          <t>……これは、ゼクの細工ね。間違いないわ。</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>（プレースホルダー：暴走した怨念の影との戦闘が発生する。）</t>
+          <t>……これは、ゼクの細工ね。間違いないわ。</t>
         </is>
       </c>
     </row>
@@ -1297,200 +1327,200 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>narr_11</t>
+          <t>narr_13</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>（リリィは息を切らしながら、砕け散った偽物の瓶の破片を拾い上げる。）</t>
+          <t>（リリィはゆっくりとあなたを振り返る。その瞳には、怒りと悲しみ、そして『裏切られたかもしれない』という疑念が混じり合っていた。）</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>（リリィは息を切らしながら、砕け散った偽物の瓶の破片を拾い上げる。）</t>
+          <t>（リリィはゆっくりとあなたを振り返る。その瞳には、怒りと悲しみ、そして『裏切られたかもしれない』という疑念が混じり合っていた。）</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>narr_12</t>
+          <t>lily_13</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>（その断面には、ゼク特有の『影の刻印』が刻まれていた。）</t>
+          <t>……答えて。あなたは、あの時私に渡した瓶が『偽物』だと知っていたの？ それとも、ゼクに騙されていたの？</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>（その断面には、ゼク特有の『影の刻印』が刻まれていた。）</t>
+          <t>……答えて。あなたは、あの時私に渡した瓶が『偽物』だと知っていたの？ それとも、ゼクに騙されていたの？</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>lily_12</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>……これは、ゼクの細工ね。間違いないわ。</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>……これは、ゼクの細工ね。間違いないわ。</t>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>bottle_choice</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>bottle_confess</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>narr_13</t>
+          <t>c_bottle_confess</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>（リリィはゆっくりとあなたを振り返る。その瞳には、怒りと悲しみ、そして『裏切られたかもしれない』という疑念が混じり合っていた。）</t>
+          <t>……すまない。ゼクに唆されて、本物と偽物をすり替えた。君を裏切った</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>（リリィはゆっくりとあなたを振り返る。その瞳には、怒りと悲しみ、そして『裏切られたかもしれない』という疑念が混じり合っていた。）</t>
+          <t>……すまない。ゼクに唆されて、本物と偽物をすり替えた。君を裏切った</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>bottle_blame</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>lily_13</t>
+          <t>c_bottle_blame</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>……答えて。あなたは、あの時私に渡した瓶が『偽物』だと知っていたの？ それとも、ゼクに騙されていたの？</t>
+          <t>知らなかった。ゼクが勝手に細工したんだ。俺は何も……</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>……答えて。あなたは、あの時私に渡した瓶が『偽物』だと知っていたの？ それとも、ゼクに騙されていたの？</t>
+          <t>知らなかった。ゼクが勝手に細工したんだ。俺は何も……</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>bottle_choice</t>
+          <t>bottle_deny</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>c_bottle_deny</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>俺が作った瓶に問題はなかった。お前の管理ミスだろう</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>俺が作った瓶に問題はなかった。お前の管理ミスだろう</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="inlineStr">
+      <c r="A60" t="inlineStr">
         <is>
           <t>bottle_confess</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>c_bottle_confess</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>……すまない。ゼクに唆されて、本物と偽物をすり替えた。君を裏切った</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>……すまない。ゼクに唆されて、本物と偽物をすり替えた。君を裏切った</t>
-        </is>
-      </c>
     </row>
     <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>bottle_blame</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>c_bottle_blame</t>
+          <t>lily_r4</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>知らなかった。ゼクが勝手に細工したんだ。俺は何も……</t>
+          <t>……そう。</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>知らなかった。ゼクが勝手に細工したんだ。俺は何も……</t>
+          <t>……そう。</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>bottle_deny</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>c_bottle_deny</t>
+          <t>narr_14</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>俺が作った瓶に問題はなかった。お前の管理ミスだろう</t>
+          <t>（リリィの肩が小刻みに震えている。）</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>俺が作った瓶に問題はなかった。お前の管理ミスだろう</t>
+          <t>（リリィの肩が小刻みに震えている。）</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>bottle_confess</t>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>lily_14</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>……あなたは、私を『利用できる道具』だと思っていたのね。バルガスさんには友情を示し、私には欺瞞を。</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>……あなたは、私を『利用できる道具』だと思っていたのね。バルガスさんには友情を示し、私には欺瞞を。</t>
         </is>
       </c>
     </row>
@@ -1502,17 +1532,17 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>lily_r4</t>
+          <t>lily_15</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>……そう。</t>
+          <t>……ふふ、サキュバスが人間に裏切られるなんて、滑稽な話だわ。</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>……そう。</t>
+          <t>……ふふ、サキュバスが人間に裏切られるなんて、滑稽な話だわ。</t>
         </is>
       </c>
     </row>
@@ -1524,17 +1554,17 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>narr_14</t>
+          <t>narr_15</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>（リリィの肩が小刻みに震えている。）</t>
+          <t>（彼女は深く息を吐き、再びあなたを見つめる。）</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>（リリィの肩が小刻みに震えている。）</t>
+          <t>（彼女は深く息を吐き、再びあなたを見つめる。）</t>
         </is>
       </c>
     </row>
@@ -1546,17 +1576,17 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>lily_14</t>
+          <t>lily_16</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>……あなたは、私を『利用できる道具』だと思っていたのね。バルガスさんには友情を示し、私には欺瞞を。</t>
+          <t>でも……でもね。あなたが今、正直に話してくれたこと……それだけは、評価します。</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>……あなたは、私を『利用できる道具』だと思っていたのね。バルガスさんには友情を示し、私には欺瞞を。</t>
+          <t>でも……でもね。あなたが今、正直に話してくれたこと……それだけは、評価します。</t>
         </is>
       </c>
     </row>
@@ -1568,172 +1598,172 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>lily_15</t>
+          <t>lily_17</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>……ふふ、サキュバスが人間に裏切られるなんて、滑稽な話だわ。</t>
+          <t>ゼクのような『完全な嘘つき』よりは、まだ救いがある。</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>……ふふ、サキュバスが人間に裏切られるなんて、滑稽な話だわ。</t>
+          <t>ゼクのような『完全な嘘つき』よりは、まだ救いがある。</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>narr_15</t>
+          <t>lily_18</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>（彼女は深く息を吐き、再びあなたを見つめる。）</t>
+          <t>……私は、あなたを許すわ。ただし、二度目はない。次にあなたが私を欺いたら……その時は、この爪であなたの喉を裂きます。約束よ。</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>（彼女は深く息を吐き、再びあなたを見つめる。）</t>
+          <t>……私は、あなたを許すわ。ただし、二度目はない。次にあなたが私を欺いたら……その時は、この爪であなたの喉を裂きます。約束よ。</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>lily_16</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>でも……でもね。あなたが今、正直に話してくれたこと……それだけは、評価します。</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>でも……でもね。あなたが今、正直に話してくれたこと……それだけは、評価します。</t>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.lily_bottle_confession,0</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>lily_17</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>ゼクのような『完全な嘘つき』よりは、まだ救いがある。</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>ゼクのような『完全な嘘つき』よりは、まだ救いがある。</t>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>chitsii.arena.rel.lily,20</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>lily_18</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>……私は、あなたを許すわ。ただし、二度目はない。次にあなたが私を欺いたら……その時は、この爪であなたの喉を裂きます。約束よ。</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>……私は、あなたを許すわ。ただし、二度目はない。次にあなたが私を欺いたら……その時は、この爪であなたの喉を裂きます。約束よ。</t>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.lily_trust_rebuilding,1</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="D72" t="inlineStr">
         <is>
-          <t>setFlag</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.lily_bottle_confession,0</t>
+          <t>mod_flag(chitsii.arena.player.karma, +5)</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>chitsii.arena.rel.lily,20</t>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>after_bottle</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.lily_trust_rebuilding,1</t>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>bottle_blame</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.player.karma, +5)</t>
-        </is>
-      </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>lily_r5</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>……そう、ですか。</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>……そう、ですか。</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>after_bottle</t>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>narr_16</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>（リリィが破片を丁寧に片付け、いつもの事務的な表情に戻る。）</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>（リリィが破片を丁寧に片付け、いつもの事務的な表情に戻る。）</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>bottle_blame</t>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>lily_19</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>それなら仕方ありませんね。ゼクという男は、そういう生き物ですから。</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>それなら仕方ありませんね。ゼクという男は、そういう生き物ですから。</t>
         </is>
       </c>
     </row>
@@ -1745,17 +1775,17 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>lily_r5</t>
+          <t>lily_20</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>……そう、ですか。</t>
+          <t>……さあ、虚空の心臓の製作に取り掛かりましょう。時間がありません。</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>……そう、ですか。</t>
+          <t>……さあ、虚空の心臓の製作に取り掛かりましょう。時間がありません。</t>
         </is>
       </c>
     </row>
@@ -1767,1168 +1797,1148 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>narr_16</t>
+          <t>narr_17</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>（リリィが破片を丁寧に片付け、いつもの事務的な表情に戻る。）</t>
+          <t>（リリィの尻尾だけが、不機嫌そうに床を叩いている。）</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>（リリィが破片を丁寧に片付け、いつもの事務的な表情に戻る。）</t>
+          <t>（リリィの尻尾だけが、不機嫌そうに床を叩いている。）</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="inlineStr">
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.lily_bottle_confession,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>after_bottle</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>bottle_deny</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>narr_18</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>（リリィの表情が凍りつく。）</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>（リリィの表情が凍りつく。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>narr_19</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>（リリィの周囲に冷気のような波動が広がる。）</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>（リリィの周囲に冷気のような波動が広がる。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="F85" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>lily_19</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>それなら仕方ありませんね。ゼクという男は、そういう生き物ですから。</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>それなら仕方ありませんね。ゼクという男は、そういう生き物ですから。</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>lily_20</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>……さあ、虚空の心臓の製作に取り掛かりましょう。時間がありません。</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>……さあ、虚空の心臓の製作に取り掛かりましょう。時間がありません。</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>narr_17</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>（リリィの尻尾だけが、不機嫌そうに床を叩いている。）</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>（リリィの尻尾だけが、不機嫌そうに床を叩いている。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.lily_bottle_confession,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>after_bottle</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>bottle_deny</t>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>lily_21</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>……そうですか。私の、管理ミス。</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>……そうですか。私の、管理ミス。</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>narr_18</t>
+          <t>lily_22</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>（リリィの表情が凍りつく。）</t>
+          <t>ふふふ……ええ、そうかもしれませんね。私が、あなたという『獣』を『人間』だと勘違いしていた。それが最大のミスでした。</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>（リリィの表情が凍りつく。）</t>
+          <t>ふふふ……ええ、そうかもしれませんね。私が、あなたという『獣』を『人間』だと勘違いしていた。それが最大のミスでした。</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>narr_19</t>
+          <t>lily_23</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>（リリィの周囲に冷気のような波動が広がる。）</t>
+          <t>結構です。どうぞ、虚空の心臓でも何でも作って、アスタロト様に挑んでください。……私は、もうあなたに期待しません。</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>（リリィの周囲に冷気のような波動が広がる。）</t>
+          <t>結構です。どうぞ、虚空の心臓でも何でも作って、アスタロト様に挑んでください。……私は、もうあなたに期待しません。</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>lily_21</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>……そうですか。私の、管理ミス。</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>……そうですか。私の、管理ミス。</t>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.lily_bottle_confession,2</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>lily_22</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>ふふふ……ええ、そうかもしれませんね。私が、あなたという『獣』を『人間』だと勘違いしていた。それが最大のミスでした。</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>ふふふ……ええ、そうかもしれませんね。私が、あなたという『獣』を『人間』だと勘違いしていた。それが最大のミスでした。</t>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>chitsii.arena.rel.lily,0</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>lily_23</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>結構です。どうぞ、虚空の心臓でも何でも作って、アスタロト様に挑んでください。……私は、もうあなたに期待しません。</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>結構です。どうぞ、虚空の心臓でも何でも作って、アスタロト様に挑んでください。……私は、もうあなたに期待しません。</t>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.lily_hostile,1</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="D91" t="inlineStr">
         <is>
-          <t>setFlag</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.lily_bottle_confession,2</t>
+          <t>mod_flag(chitsii.arena.player.karma, -30)</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>chitsii.arena.rel.lily,0</t>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>after_bottle</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.lily_hostile,1</t>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>after_bottle</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.player.karma, -30)</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>scene2_crafting</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>after_bottle</t>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>scene2_crafting</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>after_bottle</t>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Crafting_Ambient");             var data = SoundManager.current.GetData("BGM/Crafting_Ambient");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Crafting_Ambient");             }</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>scene2_crafting</t>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>lily_24</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>必要な素材は以下の通りです。</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>必要な素材は以下の通りです。</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>scene2_crafting</t>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>lily_25</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>**高品質な宝石×3**、**エーテルの結晶×5**、そしてゼクの店で購入できる**『星の断片』×1**。これらを『宝石細工』または『機械製作』の技術で練り上げてください。</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>**高品質な宝石×3**、**エーテルの結晶×5**、そしてゼクの店で購入できる**『星の断片』×1**。これらを『宝石細工』または『機械製作』の技術で練り上げてください。</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Crafting_Ambient");             var data = SoundManager.current.GetData("BGM/Crafting_Ambient");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Crafting_Ambient");             }</t>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>lily_26</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>……完成したら、私に見せてください。台帳に記録し、ランクAへの挑戦権を授与いたします。</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>……完成したら、私に見せてください。台帳に記録し、ランクAへの挑戦権を授与いたします。</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="F100" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>lily_24</t>
+          <t>narr_20</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>必要な素材は以下の通りです。</t>
+          <t>（プレースホルダー：ここで実際の製作処理を行う。）</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>必要な素材は以下の通りです。</t>
+          <t>（プレースホルダー：ここで実際の製作処理を行う。）</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>lily_25</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>**高品質な宝石×3**、**エーテルの結晶×5**、そしてゼクの店で購入できる**『星の断片』×1**。これらを『宝石細工』または『機械製作』の技術で練り上げてください。</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>**高品質な宝石×3**、**エーテルの結晶×5**、そしてゼクの店で購入できる**『星の断片』×1**。これらを『宝石細工』または『機械製作』の技術で練り上げてください。</t>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>scene3_balgas_warning</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>lily_26</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>……完成したら、私に見せてください。台帳に記録し、ランクAへの挑戦権を授与いたします。</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>……完成したら、私に見せてください。台帳に記録し、ランクAへの挑戦権を授与いたします。</t>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>scene3_balgas_warning</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>narr_20</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>（プレースホルダー：ここで実際の製作処理を行う。）</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>（プレースホルダー：ここで実際の製作処理を行う。）</t>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_01");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_01");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_01");             }</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>scene3_balgas_warning</t>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>narr_21</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>（リリィとの打ち合わせを終え、素材を探しに出ようとするあなたの腕を、酒臭い、しかし岩のように力強い手が掴んだ。）</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>（リリィとの打ち合わせを終え、素材を探しに出ようとするあなたの腕を、酒臭い、しかし岩のように力強い手が掴んだ。）</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>scene3_balgas_warning</t>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>narr_22</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>（バルガスだ。彼はあなたを人気の無い柱の影へと引きずり込み、周囲を警戒しながら低く、掠れた声で話し始めた。）</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>（バルガスだ。彼はあなたを人気の無い柱の影へと引きずり込み、周囲を警戒しながら低く、掠れた声で話し始めた。）</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_01");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_01");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_01");             }</t>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>balgas_1</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>……おい、待て。リリィの女狐に言われるがまま、あいつ（ゼク）の店へ行くつもりか？</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>……おい、待て。リリィの女狐に言われるがまま、あいつ（ゼク）の店へ行くつもりか？</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>balgas_2</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>最近のお前は、あいつの吐く『毒』を飲みすぎだ。ヌルの記憶チップだの、世界のバグだの……ゼクが語る『真実』ってのはな、お前の足を止めるための泥濘（ぬかるみ）なんだよ。</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>最近のお前は、あいつの吐く『毒』を飲みすぎだ。ヌルの記憶チップだの、世界のバグだの……ゼクが語る『真実』ってのはな、お前の足を止めるための泥濘（ぬかるみ）なんだよ。</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>balgas_3</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>あいつはな、ただの商人じゃねえ。……『剥製師（はくせいし）』なんだ。</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>あいつはな、ただの商人じゃねえ。……『剥製師（はくせいし）』なんだ。</t>
+        </is>
+      </c>
     </row>
     <row r="109">
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>balgas_4</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>英雄が絶望し、魂が折れる瞬間を待っている。そして、その『最も美しい瞬間』を切り取って、永遠にコレクションしやがる。</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>英雄が絶望し、魂が折れる瞬間を待っている。そして、その『最も美しい瞬間』を切り取って、永遠にコレクションしやがる。</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="F110" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>narr_21</t>
+          <t>balgas_5</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>（リリィとの打ち合わせを終え、素材を探しに出ようとするあなたの腕を、酒臭い、しかし岩のように力強い手が掴んだ。）</t>
+          <t>カインの時もそうだ……あいつはただ、お前が友を裏切るかどうかをニヤニヤしながら見てたんだよ。</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>（リリィとの打ち合わせを終え、素材を探しに出ようとするあなたの腕を、酒臭い、しかし岩のように力強い手が掴んだ。）</t>
+          <t>カインの時もそうだ……あいつはただ、お前が友を裏切るかどうかをニヤニヤしながら見てたんだよ。</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>narr_22</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>（バルガスだ。彼はあなたを人気の無い柱の影へと引きずり込み、周囲を警戒しながら低く、掠れた声で話し始めた。）</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>（バルガスだ。彼はあなたを人気の無い柱の影へと引きずり込み、周囲を警戒しながら低く、掠れた声で話し始めた。）</t>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>check_kain</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>balgas_1</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>……おい、待て。リリィの女狐に言われるがまま、あいつ（ゼク）の店へ行くつもりか？</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>……おい、待て。リリィの女狐に言われるがまま、あいつ（ゼク）の店へ行くつもりか？</t>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>check_kain</t>
         </is>
       </c>
     </row>
     <row r="113">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>kain_event</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.kain_soul_choice, ==1)</t>
+        </is>
+      </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>balgas_2</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>最近のお前は、あいつの吐く『毒』を飲みすぎだ。ヌルの記憶チップだの、世界のバグだの……ゼクが語る『真実』ってのはな、お前の足を止めるための泥濘（ぬかるみ）なんだよ。</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>最近のお前は、あいつの吐く『毒』を飲みすぎだ。ヌルの記憶チップだの、世界のバグだの……ゼクが語る『真実』ってのはな、お前の足を止めるための泥濘（ぬかるみ）なんだよ。</t>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="114">
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>after_kain</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.kain_soul_choice, ==0)</t>
+        </is>
+      </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>balgas_3</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>あいつはな、ただの商人じゃねえ。……『剥製師（はくせいし）』なんだ。</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>あいつはな、ただの商人じゃねえ。……『剥製師（はくせいし）』なんだ。</t>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>balgas_4</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>英雄が絶望し、魂が折れる瞬間を待っている。そして、その『最も美しい瞬間』を切り取って、永遠にコレクションしやがる。</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>英雄が絶望し、魂が折れる瞬間を待っている。そして、その『最も美しい瞬間』を切り取って、永遠にコレクションしやがる。</t>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>kain_event</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="F116" t="inlineStr">
         <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>narr_23</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>（バルガスは一瞬、言葉を止め、あなたを鋭く見つめる。）</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>（バルガスは一瞬、言葉を止め、あなたを鋭く見つめる。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="F117" t="inlineStr">
+        <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>balgas_5</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>カインの時もそうだ……あいつはただ、お前が友を裏切るかどうかをニヤニヤしながら見てたんだよ。</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>カインの時もそうだ……あいつはただ、お前が友を裏切るかどうかをニヤニヤしながら見てたんだよ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>check_kain</t>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>balgas_6</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>……おい。一つ、聞いていいか。</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>……おい。一つ、聞いていいか。</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>check_kain</t>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>balgas_7</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>あの時……カインの魂の欠片。本当に、見つからなかったのか？</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>あの時……カインの魂の欠片。本当に、見つからなかったのか？</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>kain_event</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.kain_soul_choice, ==1)</t>
-        </is>
-      </c>
       <c r="F119" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>narr_24</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>（バルガスの手が微かに震えている。）</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>（バルガスの手が微かに震えている。）</t>
+        </is>
+      </c>
     </row>
     <row r="120">
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>after_kain</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.kain_soul_choice, ==0)</t>
-        </is>
-      </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>balgas_8</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>いや……俺の勘違いかもしれねえ。だが、ゼクの野郎がやたらと上機嫌だった時期があってな。……まるで、『最高の獲物』を手に入れたような顔をしてやがった。</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>いや……俺の勘違いかもしれねえ。だが、ゼクの野郎がやたらと上機嫌だった時期があってな。……まるで、『最高の獲物』を手に入れたような顔をしてやがった。</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>kain_event</t>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>balgas_9</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>……お前が、あいつに何か『売った』なんてことは……ないよな？</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>……お前が、あいつに何か『売った』なんてことは……ないよな？</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>narr_23</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>（バルガスは一瞬、言葉を止め、あなたを鋭く見つめる。）</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>（バルガスは一瞬、言葉を止め、あなたを鋭く見つめる。）</t>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>kain_choice</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>kain_confess</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>balgas_6</t>
+          <t>c_kain_confess</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>……おい。一つ、聞いていいか。</t>
+          <t>……すまない。カインの魂を、ゼクに売った</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>……おい。一つ、聞いていいか。</t>
+          <t>……すまない。カインの魂を、ゼクに売った</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>kain_lie</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>balgas_7</t>
+          <t>c_kain_lie</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>あの時……カインの魂の欠片。本当に、見つからなかったのか？</t>
+          <t>見つからなかった。ゼクとは関係ない</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>あの時……カインの魂の欠片。本当に、見つからなかったのか？</t>
+          <t>見つからなかった。ゼクとは関係ない</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>narr_24</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>（バルガスの手が微かに震えている。）</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>（バルガスの手が微かに震えている。）</t>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>kain_confess</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="F126" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>balgas_8</t>
+          <t>narr_25</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>いや……俺の勘違いかもしれねえ。だが、ゼクの野郎がやたらと上機嫌だった時期があってな。……まるで、『最高の獲物』を手に入れたような顔をしてやがった。</t>
+          <t>（バルガスは深く息を吐き、拳を握りしめる。）</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>いや……俺の勘違いかもしれねえ。だが、ゼクの野郎がやたらと上機嫌だった時期があってな。……まるで、『最高の獲物』を手に入れたような顔をしてやがった。</t>
+          <t>（バルガスは深く息を吐き、拳を握りしめる。）</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="F127" t="inlineStr">
         <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>narr_26</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>（バルガスの目に、怒りと失望、そして深い悲しみが宿る。）</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>（バルガスの目に、怒りと失望、そして深い悲しみが宿る。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="F128" t="inlineStr">
+        <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>balgas_9</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>……お前が、あいつに何か『売った』なんてことは……ないよな？</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>……お前が、あいつに何か『売った』なんてことは……ないよな？</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>kain_choice</t>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>balgas_10</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>……そうか。お前は、俺の相棒を……カインを、二度殺したんだな。</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>……そうか。お前は、俺の相棒を……カインを、二度殺したんだな。</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>kain_confess</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>c_kain_confess</t>
+          <t>balgas_11</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>……すまない。カインの魂を、ゼクに売った</t>
+          <t>一度目は、異次元の錆に魂を食われて。二度目は、お前に売り飛ばされて。</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>……すまない。カインの魂を、ゼクに売った</t>
+          <t>一度目は、異次元の錆に魂を食われて。二度目は、お前に売り飛ばされて。</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>kain_lie</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>c_kain_lie</t>
+          <t>balgas_12</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>見つからなかった。ゼクとは関係ない</t>
+          <t>……ハッ、俺はなんてマヌケだ。お前を『カイン以上の戦士』だと思っちまってた。</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>見つからなかった。ゼクとは関係ない</t>
+          <t>……ハッ、俺はなんてマヌケだ。お前を『カイン以上の戦士』だと思っちまってた。</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>kain_confess</t>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>balgas_13</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>……いいか、鴉。いや、もうお前を鴉とは呼ばねえ。俺はこれでも、裏切られ慣れてる。だから、お前を殺したりはしない。</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>……いいか、鴉。いや、もうお前を鴉とは呼ばねえ。俺はこれでも、裏切られ慣れてる。だから、お前を殺したりはしない。</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="F132" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>narr_25</t>
+          <t>balgas_14</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>（バルガスは深く息を吐き、拳を握りしめる。）</t>
+          <t>だが……もう二度と、俺に『友』として話しかけるな。お前は今日から、ただの『契約闘士』だ。それ以上でも、それ以下でもねえ。</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>（バルガスは深く息を吐き、拳を握りしめる。）</t>
+          <t>だが……もう二度と、俺に『友』として話しかけるな。お前は今日から、ただの『契約闘士』だ。それ以上でも、それ以下でもねえ。</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>narr_26</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>（バルガスの目に、怒りと失望、そして深い悲しみが宿る。）</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>（バルガスの目に、怒りと失望、そして深い悲しみが宿る。）</t>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.kain_soul_confession,0</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="F134" t="inlineStr">
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>chitsii.arena.rel.balgas,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.balgas_trust_broken,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>mod_flag(chitsii.arena.player.karma, -20)</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>after_kain</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>kain_lie</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>narr_27</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>（バルガスは視線を逸らし、深く息を吐く。）</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>（バルガスは視線を逸らし、深く息を吐く。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>narr_28</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>（バルガスが信じたいが、心の奥では真実を察している。）</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>（バルガスが信じたいが、心の奥では真実を察している。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="F141" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>balgas_10</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>……そうか。お前は、俺の相棒を……カインを、二度殺したんだな。</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>……そうか。お前は、俺の相棒を……カインを、二度殺したんだな。</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="F135" t="inlineStr">
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>balgas_15</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>……そうか。</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>……そうか。</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="F142" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>balgas_11</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>一度目は、異次元の錆に魂を食われて。二度目は、お前に売り飛ばされて。</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>一度目は、異次元の錆に魂を食われて。二度目は、お前に売り飛ばされて。</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>balgas_12</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>……ハッ、俺はなんてマヌケだ。お前を『カイン以上の戦士』だと思っちまってた。</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>……ハッ、俺はなんてマヌケだ。お前を『カイン以上の戦士』だと思っちまってた。</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>balgas_13</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>……いいか、鴉。いや、もうお前を鴉とは呼ばねえ。俺はこれでも、裏切られ慣れてる。だから、お前を殺したりはしない。</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>……いいか、鴉。いや、もうお前を鴉とは呼ばねえ。俺はこれでも、裏切られ慣れてる。だから、お前を殺したりはしない。</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>balgas_14</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>だが……もう二度と、俺に『友』として話しかけるな。お前は今日から、ただの『契約闘士』だ。それ以上でも、それ以下でもねえ。</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>だが……もう二度と、俺に『友』として話しかけるな。お前は今日から、ただの『契約闘士』だ。それ以上でも、それ以下でもねえ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="D139" t="inlineStr">
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>balgas_16</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>……なら、いい。……いや、よかねえな。俺の勘が外れてることを祈るよ。</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>……なら、いい。……いや、よかねえな。俺の勘が外れてることを祈るよ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>narr_29</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>（バルガスがあなたの肩を叩くが、その手には以前のような力強さがない。）</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>（バルガスがあなたの肩を叩くが、その手には以前のような力強さがない。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="D144" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.kain_soul_confession,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="D140" t="inlineStr">
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.kain_soul_confession,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="D145" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>chitsii.arena.rel.balgas,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.balgas_trust_broken,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.player.karma, -20)</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="B143" t="inlineStr">
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>chitsii.arena.rel.balgas,30</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" t="inlineStr">
         <is>
           <t>after_kain</t>
         </is>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>kain_lie</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>narr_27</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>（バルガスは視線を逸らし、深く息を吐く。）</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>（バルガスは視線を逸らし、深く息を吐く。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>narr_28</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>（バルガスが信じたいが、心の奥では真実を察している。）</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>（バルガスが信じたいが、心の奥では真実を察している。）</t>
-        </is>
-      </c>
-    </row>
     <row r="147">
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>balgas_15</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>……そうか。</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>……そうか。</t>
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>after_kain</t>
         </is>
       </c>
     </row>
@@ -2940,99 +2950,134 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>balgas_16</t>
+          <t>balgas_17</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>……なら、いい。……いや、よかねえな。俺の勘が外れてることを祈るよ。</t>
+          <t>いいか、鴉……いや、戦鬼。あいつの言葉に耳を貸すな。真実なんてのは、アスタロトの首を獲った後に、自分の目で見りゃいい。</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>……なら、いい。……いや、よかねえな。俺の勘が外れてることを祈るよ。</t>
+          <t>いいか、鴉……いや、戦鬼。あいつの言葉に耳を貸すな。真実なんてのは、アスタロトの首を獲った後に、自分の目で見りゃいい。</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="F149" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>narr_29</t>
+          <t>balgas_18</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>（バルガスがあなたの肩を叩くが、その手には以前のような力強さがない。）</t>
+          <t>影に潜む奴に背中を見せるなよ。……お前まで『物言わぬコレクション』にされるのは、俺の酒が不味くなるからな。</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>（バルガスがあなたの肩を叩くが、その手には以前のような力強さがない。）</t>
+          <t>影に潜む奴に背中を見せるなよ。……お前まで『物言わぬコレクション』にされるのは、俺の酒が不味くなるからな。</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.kain_soul_confession,1</t>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>final_choice</t>
         </is>
       </c>
     </row>
     <row r="151">
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>final_thanks</t>
+        </is>
+      </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>chitsii.arena.rel.balgas,30</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>c_final_thanks</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>……ありがとう</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>……ありがとう</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>after_kain</t>
+          <t>final_trust</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>c_final_trust</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>バルガスの言葉を信じる</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>バルガスの言葉を信じる</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>after_kain</t>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>final_knowledge</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>c_final_knowledge</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>ゼクの知識をさらに求める</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>ゼクの知識をさらに求める</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>balgas_17</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>いいか、鴉……いや、戦鬼。あいつの言葉に耳を貸すな。真実なんてのは、アスタロトの首を獲った後に、自分の目で見りゃいい。</t>
-        </is>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>いいか、鴉……いや、戦鬼。あいつの言葉に耳を貸すな。真実なんてのは、アスタロトの首を獲った後に、自分の目で見りゃいい。</t>
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>final_thanks</t>
         </is>
       </c>
     </row>
@@ -3044,487 +3089,334 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>balgas_18</t>
+          <t>balgas_r1</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>影に潜む奴に背中を見せるなよ。……お前まで『物言わぬコレクション』にされるのは、俺の酒が不味くなるからな。</t>
+          <t>……気をつけろ。生きて戻ってこい。</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>影に潜む奴に背中を見せるなよ。……お前まで『物言わぬコレクション』にされるのは、俺の酒が不味くなるからな。</t>
+          <t>……気をつけろ。生きて戻ってこい。</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>final_choice</t>
+          <t>scene4_completion</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>final_thanks</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>c_final_thanks</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>……ありがとう</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>……ありがとう</t>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>final_trust</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>final_trust</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>c_final_trust</t>
+          <t>balgas_r2</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>バルガスの言葉を信じる</t>
+          <t>……よし。それでいい。</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>バルガスの言葉を信じる</t>
+          <t>……よし。それでいい。</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="inlineStr">
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>mod_flag(chitsii.arena.rel.balgas, +10)</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>scene4_completion</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
         <is>
           <t>final_knowledge</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>c_final_knowledge</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>ゼクの知識をさらに求める</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>ゼクの知識をさらに求める</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>final_thanks</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="F161" t="inlineStr">
+    </row>
+    <row r="162">
+      <c r="F162" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>balgas_r1</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>……気をつけろ。生きて戻ってこい。</t>
-        </is>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>……気をつけろ。生きて戻ってこい。</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="B162" t="inlineStr">
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>balgas_r3</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>……ケッ、お前の好きにしろ。だが、後悔するなよ。</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>……ケッ、お前の好きにしろ。だが、後悔するなよ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>mod_flag(chitsii.arena.rel.balgas, -5)</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" t="inlineStr">
         <is>
           <t>scene4_completion</t>
         </is>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>final_trust</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>balgas_r2</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>……よし。それでいい。</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>……よし。それでいい。</t>
-        </is>
-      </c>
-    </row>
     <row r="165">
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.rel.balgas, +10)</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>scene4_completion</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>scene4_completion</t>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Tranquil");             var data = SoundManager.current.GetData("BGM/Lily_Tranquil");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Tranquil");             }</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>final_knowledge</t>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>narr_30</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>（素材を集め、虚空の心臓を完成させたあなた。それを手にしたあなたは、リリィのもとへ向かう。）</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>（素材を集め、虚空の心臓を完成させたあなた。それを手にしたあなたは、リリィのもとへ向かう。）</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="F168" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>balgas_r3</t>
+          <t>lily_27</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>……ケッ、お前の好きにしろ。だが、後悔するなよ。</t>
+          <t>……完成したのですね。見せてください。</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>……ケッ、お前の好きにしろ。だが、後悔するなよ。</t>
+          <t>……完成したのですね。見せてください。</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.rel.balgas, -5)</t>
-        </is>
-      </c>
       <c r="F169" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>narr_31</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>（リリィが虚空の心臓を手に取り、魔力を流し込む。）</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>（リリィが虚空の心臓を手に取り、魔力を流し込む。）</t>
+        </is>
+      </c>
     </row>
     <row r="170">
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>scene4_completion</t>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>lily_28</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>……完璧です。あなたの魔力と技術が、この異次元の構造を支える楔となりました。</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>……完璧です。あなたの魔力と技術が、この異次元の構造を支える楔となりました。</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>scene4_completion</t>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>lily_29</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>これで、ランクAへの挑戦権を授与いたします。……ふふ、あなたは既に、この異次元の一部となりました。誇っていいですよ。</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>これで、ランクAへの挑戦権を授与いたします。……ふふ、あなたは既に、この異次元の一部となりました。誇っていいですよ。</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Tranquil");             var data = SoundManager.current.GetData("BGM/Lily_Tranquil");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Tranquil");             }</t>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>narr_32</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>（彼女は台帳に何かを書き込む。）</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>（彼女は台帳に何かを書き込む。）</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>lily_30</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>報酬として、**小さなコイン30枚**と**プラチナコイン15枚**を記録いたします。……それと、あなたは『虚空と共鳴する者』としての称号を獲得しました。</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>報酬として、**小さなコイン30枚**と**プラチナコイン15枚**を記録いたします。……それと、あなたは『虚空と共鳴する者』としての称号を獲得しました。</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="D174" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>for(int i=0; i&lt;30; i++) { EClass.pc.Pick(ThingGen.Create(\"money\")); } for(int i=0; i&lt;15; i++) { EClass.pc.Pick(ThingGen.Create(\"plat\")); }</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>narr_30</t>
-        </is>
-      </c>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>（素材を集め、虚空の心臓を完成させたあなた。それを手にしたあなたは、リリィのもとへ向かう。）</t>
-        </is>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>（素材を集め、虚空の心臓を完成させたあなた。それを手にしたあなたは、リリィのもとへ向かう。）</t>
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>lily_27</t>
-        </is>
-      </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>……完成したのですね。見せてください。</t>
-        </is>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>……完成したのですね。見せてください。</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>narr_31</t>
-        </is>
-      </c>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>（リリィが虚空の心臓を手に取り、魔力を流し込む。）</t>
-        </is>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>（リリィが虚空の心臓を手に取り、魔力を流し込む。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>lily_28</t>
-        </is>
-      </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>……完璧です。あなたの魔力と技術が、この異次元の構造を支える楔となりました。</t>
-        </is>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>……完璧です。あなたの魔力と技術が、この異次元の構造を支える楔となりました。</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>lily_29</t>
-        </is>
-      </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>これで、ランクAへの挑戦権を授与いたします。……ふふ、あなたは既に、この異次元の一部となりました。誇っていいですよ。</t>
-        </is>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>これで、ランクAへの挑戦権を授与いたします。……ふふ、あなたは既に、この異次元の一部となりました。誇っていいですよ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>narr_32</t>
-        </is>
-      </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>（彼女は台帳に何かを書き込む。）</t>
-        </is>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>（彼女は台帳に何かを書き込む。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>lily_30</t>
-        </is>
-      </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>報酬として、**小さなコイン30枚**と**プラチナコイン15枚**を記録いたします。……それと、あなたは『虚空と共鳴する者』としての称号を獲得しました。</t>
-        </is>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>報酬として、**小さなコイン30枚**と**プラチナコイン15枚**を記録いたします。……それと、あなたは『虚空と共鳴する者』としての称号を獲得しました。</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>for(int i=0; i&lt;30; i++) { EClass.pc.Pick(ThingGen.Create(\"money\")); } for(int i=0; i&lt;15; i++) { EClass.pc.Pick(ThingGen.Create(\"plat\")); }</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="D186" t="inlineStr">
+      <c r="D177" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_makuma2.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_makuma2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K186"/>
+  <dimension ref="A1:K184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -986,87 +986,82 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="inlineStr">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>switch_flag(chitsii.arena.player.bottle_choice, scene2_crafting, bottle_event, scene2_crafting)</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>bottle_event</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.bottle_choice, ==1)</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>scene2_crafting</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.bottle_choice, ==0)</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>bottle_event</t>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>narr_6</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>（リリィが設計図を広げる中、彼女は棚の奥から、以前あなたが製作した『虚空の共鳴瓶』を取り出した。）</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>（リリィが設計図を広げる中、彼女は棚の奥から、以前あなたが製作した『虚空の共鳴瓶』を取り出した。）</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>narr_6</t>
+          <t>lily_7</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>（リリィが設計図を広げる中、彼女は棚の奥から、以前あなたが製作した『虚空の共鳴瓶』を取り出した。）</t>
+          <t>……虚空の心臓を起動させる前に、この共鳴瓶で次元の『周波数』を測定する必要があります。</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>（リリィが設計図を広げる中、彼女は棚の奥から、以前あなたが製作した『虚空の共鳴瓶』を取り出した。）</t>
+          <t>……虚空の心臓を起動させる前に、この共鳴瓶で次元の『周波数』を測定する必要があります。</t>
         </is>
       </c>
     </row>
@@ -1078,90 +1073,90 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>lily_7</t>
+          <t>lily_8</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>……虚空の心臓を起動させる前に、この共鳴瓶で次元の『周波数』を測定する必要があります。</t>
+          <t>あなたが作ってくれたこの器……今まで完璧に機能していたのだけれど。</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>……虚空の心臓を起動させる前に、この共鳴瓶で次元の『周波数』を測定する必要があります。</t>
+          <t>あなたが作ってくれたこの器……今まで完璧に機能していたのだけれど。</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>lily_8</t>
+          <t>narr_7</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>あなたが作ってくれたこの器……今まで完璧に機能していたのだけれど。</t>
+          <t>（リリィが瓶に魔力を流し込むと、瓶の表面に不吉な亀裂が走る。）</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>あなたが作ってくれたこの器……今まで完璧に機能していたのだけれど。</t>
+          <t>（リリィが瓶に魔力を流し込むと、瓶の表面に不吉な亀裂が走る。）</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>narr_7</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>（リリィが瓶に魔力を流し込むと、瓶の表面に不吉な亀裂が走る。）</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>（リリィが瓶に魔力を流し込むと、瓶の表面に不吉な亀裂が走る。）</t>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>lily_9</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>……！？ なに、これ……内部構造が崩壊している……！？</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>……！？ なに、これ……内部構造が崩壊している……！？</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="F46" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>lily_9</t>
+          <t>narr_8</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>……！？ なに、これ……内部構造が崩壊している……！？</t>
+          <t>（瓶から黒い霧が噴き出し、ロビー全体を覆い始める。）</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>……！？ なに、これ……内部構造が崩壊している……！？</t>
+          <t>（瓶から黒い霧が噴き出し、ロビー全体を覆い始める。）</t>
         </is>
       </c>
     </row>
@@ -1173,39 +1168,39 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>narr_8</t>
+          <t>narr_9</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>（瓶から黒い霧が噴き出し、ロビー全体を覆い始める。）</t>
+          <t>（霧の中から、これまでアリーナで死んでいった闘士たちの怨念が、おぞましい人型の影となって実体化していく。）</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>（瓶から黒い霧が噴き出し、ロビー全体を覆い始める。）</t>
+          <t>（霧の中から、これまでアリーナで死んでいった闘士たちの怨念が、おぞましい人型の影となって実体化していく。）</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="F48" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>narr_9</t>
+          <t>lily_10</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>（霧の中から、これまでアリーナで死んでいった闘士たちの怨念が、おぞましい人型の影となって実体化していく。）</t>
+          <t>くっ……この瓶、まさか……！ 誰かが構造を改竄（かいざん）している……！</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>（霧の中から、これまでアリーナで死んでいった闘士たちの怨念が、おぞましい人型の影となって実体化していく。）</t>
+          <t>くっ……この瓶、まさか……！ 誰かが構造を改竄（かいざん）している……！</t>
         </is>
       </c>
     </row>
@@ -1217,53 +1212,53 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>lily_10</t>
+          <t>lily_11</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>くっ……この瓶、まさか……！ 誰かが構造を改竄（かいざん）している……！</t>
+          <t>このままでは、溜め込んだ死者の残響が暴走して、アリーナごと呑み込まれるわ！</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>くっ……この瓶、まさか……！ 誰かが構造を改竄（かいざん）している……！</t>
+          <t>このままでは、溜め込んだ死者の残響が暴走して、アリーナごと呑み込まれるわ！</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>lily_11</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>このままでは、溜め込んだ死者の残響が暴走して、アリーナごと呑み込まれるわ！</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>このままでは、溜め込んだ死者の残響が暴走して、アリーナごと呑み込まれるわ！</t>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>bottle_battle</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="inlineStr">
+      <c r="A51" t="inlineStr">
         <is>
           <t>bottle_battle</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>bottle_battle</t>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>narr_10</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>（プレースホルダー：暴走した怨念の影との戦闘が発生する。）</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>（プレースホルダー：暴走した怨念の影との戦闘が発生する。）</t>
         </is>
       </c>
     </row>
@@ -1275,17 +1270,17 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>narr_10</t>
+          <t>narr_11</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>（プレースホルダー：暴走した怨念の影との戦闘が発生する。）</t>
+          <t>（リリィは息を切らしながら、砕け散った偽物の瓶の破片を拾い上げる。）</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>（プレースホルダー：暴走した怨念の影との戦闘が発生する。）</t>
+          <t>（リリィは息を切らしながら、砕け散った偽物の瓶の破片を拾い上げる。）</t>
         </is>
       </c>
     </row>
@@ -1297,119 +1292,124 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>narr_11</t>
+          <t>narr_12</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>（リリィは息を切らしながら、砕け散った偽物の瓶の破片を拾い上げる。）</t>
+          <t>（その断面には、ゼク特有の『影の刻印』が刻まれていた。）</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>（リリィは息を切らしながら、砕け散った偽物の瓶の破片を拾い上げる。）</t>
+          <t>（その断面には、ゼク特有の『影の刻印』が刻まれていた。）</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>narr_12</t>
+          <t>lily_12</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>（その断面には、ゼク特有の『影の刻印』が刻まれていた。）</t>
+          <t>……これは、ゼクの細工ね。間違いないわ。</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>（その断面には、ゼク特有の『影の刻印』が刻まれていた。）</t>
+          <t>……これは、ゼクの細工ね。間違いないわ。</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>lily_12</t>
+          <t>narr_13</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>……これは、ゼクの細工ね。間違いないわ。</t>
+          <t>（リリィはゆっくりとあなたを振り返る。その瞳には、怒りと悲しみ、そして『裏切られたかもしれない』という疑念が混じり合っていた。）</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>……これは、ゼクの細工ね。間違いないわ。</t>
+          <t>（リリィはゆっくりとあなたを振り返る。その瞳には、怒りと悲しみ、そして『裏切られたかもしれない』という疑念が混じり合っていた。）</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>narr_13</t>
+          <t>lily_13</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>（リリィはゆっくりとあなたを振り返る。その瞳には、怒りと悲しみ、そして『裏切られたかもしれない』という疑念が混じり合っていた。）</t>
+          <t>……答えて。あなたは、あの時私に渡した瓶が『偽物』だと知っていたの？ それとも、ゼクに騙されていたの？</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>（リリィはゆっくりとあなたを振り返る。その瞳には、怒りと悲しみ、そして『裏切られたかもしれない』という疑念が混じり合っていた。）</t>
+          <t>……答えて。あなたは、あの時私に渡した瓶が『偽物』だと知っていたの？ それとも、ゼクに騙されていたの？</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>lily_13</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>……答えて。あなたは、あの時私に渡した瓶が『偽物』だと知っていたの？ それとも、ゼクに騙されていたの？</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>……答えて。あなたは、あの時私に渡した瓶が『偽物』だと知っていたの？ それとも、ゼクに騙されていたの？</t>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>bottle_choice</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>bottle_choice</t>
+          <t>bottle_confess</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>c_bottle_confess</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>……すまない。ゼクに唆されて、本物と偽物をすり替えた。君を裏切った</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>……すまない。ゼクに唆されて、本物と偽物をすり替えた。君を裏切った</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>bottle_confess</t>
+          <t>bottle_blame</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1419,24 +1419,24 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>c_bottle_confess</t>
+          <t>c_bottle_blame</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>……すまない。ゼクに唆されて、本物と偽物をすり替えた。君を裏切った</t>
+          <t>知らなかった。ゼクが勝手に細工したんだ。俺は何も……</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>……すまない。ゼクに唆されて、本物と偽物をすり替えた。君を裏切った</t>
+          <t>知らなかった。ゼクが勝手に細工したんだ。俺は何も……</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>bottle_blame</t>
+          <t>bottle_deny</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1446,95 +1446,90 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>c_bottle_blame</t>
+          <t>c_bottle_deny</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>知らなかった。ゼクが勝手に細工したんだ。俺は何も……</t>
+          <t>俺が作った瓶に問題はなかった。お前の管理ミスだろう</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>知らなかった。ゼクが勝手に細工したんだ。俺は何も……</t>
+          <t>俺が作った瓶に問題はなかった。お前の管理ミスだろう</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>bottle_deny</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>c_bottle_deny</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>俺が作った瓶に問題はなかった。お前の管理ミスだろう</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>俺が作った瓶に問題はなかった。お前の管理ミスだろう</t>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>bottle_confess</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>bottle_confess</t>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>lily_r4</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>……そう。</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>……そう。</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>lily_r4</t>
+          <t>narr_14</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>……そう。</t>
+          <t>（リリィの肩が小刻みに震えている。）</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>……そう。</t>
+          <t>（リリィの肩が小刻みに震えている。）</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>narr_14</t>
+          <t>lily_14</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>（リリィの肩が小刻みに震えている。）</t>
+          <t>……あなたは、私を『利用できる道具』だと思っていたのね。バルガスさんには友情を示し、私には欺瞞を。</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>（リリィの肩が小刻みに震えている。）</t>
+          <t>……あなたは、私を『利用できる道具』だと思っていたのね。バルガスさんには友情を示し、私には欺瞞を。</t>
         </is>
       </c>
     </row>
@@ -1546,61 +1541,61 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>lily_14</t>
+          <t>lily_15</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>……あなたは、私を『利用できる道具』だと思っていたのね。バルガスさんには友情を示し、私には欺瞞を。</t>
+          <t>……ふふ、サキュバスが人間に裏切られるなんて、滑稽な話だわ。</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>……あなたは、私を『利用できる道具』だと思っていたのね。バルガスさんには友情を示し、私には欺瞞を。</t>
+          <t>……ふふ、サキュバスが人間に裏切られるなんて、滑稽な話だわ。</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>lily_15</t>
+          <t>narr_15</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>……ふふ、サキュバスが人間に裏切られるなんて、滑稽な話だわ。</t>
+          <t>（彼女は深く息を吐き、再びあなたを見つめる。）</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>……ふふ、サキュバスが人間に裏切られるなんて、滑稽な話だわ。</t>
+          <t>（彼女は深く息を吐き、再びあなたを見つめる。）</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>narr_15</t>
+          <t>lily_16</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>（彼女は深く息を吐き、再びあなたを見つめる。）</t>
+          <t>でも……でもね。あなたが今、正直に話してくれたこと……それだけは、評価します。</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>（彼女は深く息を吐き、再びあなたを見つめる。）</t>
+          <t>でも……でもね。あなたが今、正直に話してくれたこと……それだけは、評価します。</t>
         </is>
       </c>
     </row>
@@ -1612,17 +1607,17 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>lily_16</t>
+          <t>lily_17</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>でも……でもね。あなたが今、正直に話してくれたこと……それだけは、評価します。</t>
+          <t>ゼクのような『完全な嘘つき』よりは、まだ救いがある。</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>でも……でもね。あなたが今、正直に話してくれたこと……それだけは、評価します。</t>
+          <t>ゼクのような『完全な嘘つき』よりは、まだ救いがある。</t>
         </is>
       </c>
     </row>
@@ -1634,39 +1629,29 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>lily_17</t>
+          <t>lily_18</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>ゼクのような『完全な嘘つき』よりは、まだ救いがある。</t>
+          <t>……私は、あなたを許すわ。ただし、二度目はない。次にあなたが私を欺いたら……その時は、この爪であなたの喉を裂きます。約束よ。</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>ゼクのような『完全な嘘つき』よりは、まだ救いがある。</t>
+          <t>……私は、あなたを許すわ。ただし、二度目はない。次にあなたが私を欺いたら……その時は、この爪であなたの喉を裂きます。約束よ。</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>lily_18</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>……私は、あなたを許すわ。ただし、二度目はない。次にあなたが私を欺いたら……その時は、この爪であなたの喉を裂きます。約束よ。</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>……私は、あなたを許すわ。ただし、二度目はない。次にあなたが私を欺いたら……その時は、この爪であなたの喉を裂きます。約束よ。</t>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.lily_bottle_confession,0</t>
         </is>
       </c>
     </row>
@@ -1678,7 +1663,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.lily_bottle_confession,0</t>
+          <t>chitsii.arena.rel.lily,20</t>
         </is>
       </c>
     </row>
@@ -1690,94 +1675,104 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>chitsii.arena.rel.lily,20</t>
+          <t>chitsii.arena.player.lily_trust_rebuilding,1</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="D74" t="inlineStr">
         <is>
-          <t>setFlag</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.lily_trust_rebuilding,1</t>
+          <t>mod_flag(chitsii.arena.player.karma, +5)</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.player.karma, +5)</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>after_bottle</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>after_bottle</t>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>bottle_blame</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>bottle_blame</t>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>lily_r5</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>……そう、ですか。</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>……そう、ですか。</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>lily_r5</t>
+          <t>narr_16</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>……そう、ですか。</t>
+          <t>（リリィが破片を丁寧に片付け、いつもの事務的な表情に戻る。）</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>……そう、ですか。</t>
+          <t>（リリィが破片を丁寧に片付け、いつもの事務的な表情に戻る。）</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>narr_16</t>
+          <t>lily_19</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>（リリィが破片を丁寧に片付け、いつもの事務的な表情に戻る。）</t>
+          <t>それなら仕方ありませんね。ゼクという男は、そういう生き物ですから。</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>（リリィが破片を丁寧に片付け、いつもの事務的な表情に戻る。）</t>
+          <t>それなら仕方ありませんね。ゼクという男は、そういう生き物ですから。</t>
         </is>
       </c>
     </row>
@@ -1789,87 +1784,87 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>lily_19</t>
+          <t>lily_20</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>それなら仕方ありませんね。ゼクという男は、そういう生き物ですから。</t>
+          <t>……さあ、虚空の心臓の製作に取り掛かりましょう。時間がありません。</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>それなら仕方ありませんね。ゼクという男は、そういう生き物ですから。</t>
+          <t>……さあ、虚空の心臓の製作に取り掛かりましょう。時間がありません。</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>lily_20</t>
+          <t>narr_17</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>……さあ、虚空の心臓の製作に取り掛かりましょう。時間がありません。</t>
+          <t>（リリィの尻尾だけが、不機嫌そうに床を叩いている。）</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>……さあ、虚空の心臓の製作に取り掛かりましょう。時間がありません。</t>
+          <t>（リリィの尻尾だけが、不機嫌そうに床を叩いている。）</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>narr_17</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>（リリィの尻尾だけが、不機嫌そうに床を叩いている。）</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>（リリィの尻尾だけが、不機嫌そうに床を叩いている。）</t>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.lily_bottle_confession,1</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.lily_bottle_confession,1</t>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>after_bottle</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>after_bottle</t>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>bottle_deny</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>bottle_deny</t>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>narr_18</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>（リリィの表情が凍りつく。）</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>（リリィの表情が凍りつく。）</t>
         </is>
       </c>
     </row>
@@ -1881,39 +1876,39 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>narr_18</t>
+          <t>narr_19</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>（リリィの表情が凍りつく。）</t>
+          <t>（リリィの周囲に冷気のような波動が広がる。）</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>（リリィの表情が凍りつく。）</t>
+          <t>（リリィの周囲に冷気のような波動が広がる。）</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>narr_19</t>
+          <t>lily_21</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>（リリィの周囲に冷気のような波動が広がる。）</t>
+          <t>……そうですか。私の、管理ミス。</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>（リリィの周囲に冷気のような波動が広がる。）</t>
+          <t>……そうですか。私の、管理ミス。</t>
         </is>
       </c>
     </row>
@@ -1925,17 +1920,17 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>lily_21</t>
+          <t>lily_22</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>……そうですか。私の、管理ミス。</t>
+          <t>ふふふ……ええ、そうかもしれませんね。私が、あなたという『獣』を『人間』だと勘違いしていた。それが最大のミスでした。</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>……そうですか。私の、管理ミス。</t>
+          <t>ふふふ……ええ、そうかもしれませんね。私が、あなたという『獣』を『人間』だと勘違いしていた。それが最大のミスでした。</t>
         </is>
       </c>
     </row>
@@ -1947,39 +1942,29 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>lily_22</t>
+          <t>lily_23</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>ふふふ……ええ、そうかもしれませんね。私が、あなたという『獣』を『人間』だと勘違いしていた。それが最大のミスでした。</t>
+          <t>結構です。どうぞ、虚空の心臓でも何でも作って、アスタロト様に挑んでください。……私は、もうあなたに期待しません。</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>ふふふ……ええ、そうかもしれませんね。私が、あなたという『獣』を『人間』だと勘違いしていた。それが最大のミスでした。</t>
+          <t>結構です。どうぞ、虚空の心臓でも何でも作って、アスタロト様に挑んでください。……私は、もうあなたに期待しません。</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>lily_23</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>結構です。どうぞ、虚空の心臓でも何でも作って、アスタロト様に挑んでください。……私は、もうあなたに期待しません。</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>結構です。どうぞ、虚空の心臓でも何でも作って、アスタロト様に挑んでください。……私は、もうあなたに期待しません。</t>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.lily_bottle_confession,2</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1976,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.lily_bottle_confession,2</t>
+          <t>chitsii.arena.rel.lily,0</t>
         </is>
       </c>
     </row>
@@ -2003,76 +1988,86 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>chitsii.arena.rel.lily,0</t>
+          <t>chitsii.arena.player.lily_hostile,1</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="D93" t="inlineStr">
         <is>
-          <t>setFlag</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.lily_hostile,1</t>
+          <t>mod_flag(chitsii.arena.player.karma, -30)</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.player.karma, -30)</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>after_bottle</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="inlineStr">
+      <c r="A95" t="inlineStr">
         <is>
           <t>after_bottle</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>after_bottle</t>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>scene2_crafting</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="inlineStr">
+      <c r="A97" t="inlineStr">
         <is>
           <t>scene2_crafting</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>scene2_crafting</t>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Crafting_Ambient");             var data = SoundManager.current.GetData("BGM/Crafting_Ambient");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Crafting_Ambient");             }</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Crafting_Ambient");             var data = SoundManager.current.GetData("BGM/Crafting_Ambient");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Crafting_Ambient");             }</t>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>lily_24</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>必要な素材は以下の通りです。</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>必要な素材は以下の通りです。</t>
         </is>
       </c>
     </row>
@@ -2084,17 +2079,17 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>lily_24</t>
+          <t>lily_25</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>必要な素材は以下の通りです。</t>
+          <t>**高品質な宝石×3**、**エーテルの結晶×5**、そしてゼクの店で購入できる**『星の断片』×1**。これらを『宝石細工』または『機械製作』の技術で練り上げてください。</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>必要な素材は以下の通りです。</t>
+          <t>**高品質な宝石×3**、**エーテルの結晶×5**、そしてゼクの店で購入できる**『星の断片』×1**。これらを『宝石細工』または『機械製作』の技術で練り上げてください。</t>
         </is>
       </c>
     </row>
@@ -2106,123 +2101,123 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>lily_25</t>
+          <t>lily_26</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>**高品質な宝石×3**、**エーテルの結晶×5**、そしてゼクの店で購入できる**『星の断片』×1**。これらを『宝石細工』または『機械製作』の技術で練り上げてください。</t>
+          <t>……完成したら、私に見せてください。台帳に記録し、ランクAへの挑戦権を授与いたします。</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>**高品質な宝石×3**、**エーテルの結晶×5**、そしてゼクの店で購入できる**『星の断片』×1**。これらを『宝石細工』または『機械製作』の技術で練り上げてください。</t>
+          <t>……完成したら、私に見せてください。台帳に記録し、ランクAへの挑戦権を授与いたします。</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="F102" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>lily_26</t>
+          <t>narr_20</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>……完成したら、私に見せてください。台帳に記録し、ランクAへの挑戦権を授与いたします。</t>
+          <t>（プレースホルダー：ここで実際の製作処理を行う。）</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>……完成したら、私に見せてください。台帳に記録し、ランクAへの挑戦権を授与いたします。</t>
+          <t>（プレースホルダー：ここで実際の製作処理を行う。）</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>narr_20</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>（プレースホルダー：ここで実際の製作処理を行う。）</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>（プレースホルダー：ここで実際の製作処理を行う。）</t>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>scene3_balgas_warning</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="inlineStr">
+      <c r="A104" t="inlineStr">
         <is>
           <t>scene3_balgas_warning</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>scene3_balgas_warning</t>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_01");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_01");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_01");             }</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="D106" t="inlineStr">
         <is>
-          <t>eval</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_01");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_01");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_01");             }</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="D107" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="D108" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>narr_21</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>（リリィとの打ち合わせを終え、素材を探しに出ようとするあなたの腕を、酒臭い、しかし岩のように力強い手が掴んだ。）</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>（リリィとの打ち合わせを終え、素材を探しに出ようとするあなたの腕を、酒臭い、しかし岩のように力強い手が掴んだ。）</t>
         </is>
       </c>
     </row>
@@ -2234,39 +2229,39 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>narr_21</t>
+          <t>narr_22</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>（リリィとの打ち合わせを終え、素材を探しに出ようとするあなたの腕を、酒臭い、しかし岩のように力強い手が掴んだ。）</t>
+          <t>（バルガスだ。彼はあなたを人気の無い柱の影へと引きずり込み、周囲を警戒しながら低く、掠れた声で話し始めた。）</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>（リリィとの打ち合わせを終え、素材を探しに出ようとするあなたの腕を、酒臭い、しかし岩のように力強い手が掴んだ。）</t>
+          <t>（バルガスだ。彼はあなたを人気の無い柱の影へと引きずり込み、周囲を警戒しながら低く、掠れた声で話し始めた。）</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="F111" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>narr_22</t>
+          <t>balgas_1</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>（バルガスだ。彼はあなたを人気の無い柱の影へと引きずり込み、周囲を警戒しながら低く、掠れた声で話し始めた。）</t>
+          <t>……おい、待て。リリィの女狐に言われるがまま、あいつ（ゼク）の店へ行くつもりか？</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>（バルガスだ。彼はあなたを人気の無い柱の影へと引きずり込み、周囲を警戒しながら低く、掠れた声で話し始めた。）</t>
+          <t>……おい、待て。リリィの女狐に言われるがまま、あいつ（ゼク）の店へ行くつもりか？</t>
         </is>
       </c>
     </row>
@@ -2278,17 +2273,17 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>balgas_1</t>
+          <t>balgas_2</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>……おい、待て。リリィの女狐に言われるがまま、あいつ（ゼク）の店へ行くつもりか？</t>
+          <t>最近のお前は、あいつの吐く『毒』を飲みすぎだ。ヌルの記憶チップだの、世界のバグだの……ゼクが語る『真実』ってのはな、お前の足を止めるための泥濘（ぬかるみ）なんだよ。</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>……おい、待て。リリィの女狐に言われるがまま、あいつ（ゼク）の店へ行くつもりか？</t>
+          <t>最近のお前は、あいつの吐く『毒』を飲みすぎだ。ヌルの記憶チップだの、世界のバグだの……ゼクが語る『真実』ってのはな、お前の足を止めるための泥濘（ぬかるみ）なんだよ。</t>
         </is>
       </c>
     </row>
@@ -2300,17 +2295,17 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>balgas_2</t>
+          <t>balgas_3</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>最近のお前は、あいつの吐く『毒』を飲みすぎだ。ヌルの記憶チップだの、世界のバグだの……ゼクが語る『真実』ってのはな、お前の足を止めるための泥濘（ぬかるみ）なんだよ。</t>
+          <t>あいつはな、ただの商人じゃねえ。……『剥製師（はくせいし）』なんだ。</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>最近のお前は、あいつの吐く『毒』を飲みすぎだ。ヌルの記憶チップだの、世界のバグだの……ゼクが語る『真実』ってのはな、お前の足を止めるための泥濘（ぬかるみ）なんだよ。</t>
+          <t>あいつはな、ただの商人じゃねえ。……『剥製師（はくせいし）』なんだ。</t>
         </is>
       </c>
     </row>
@@ -2322,17 +2317,17 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>balgas_3</t>
+          <t>balgas_4</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>あいつはな、ただの商人じゃねえ。……『剥製師（はくせいし）』なんだ。</t>
+          <t>英雄が絶望し、魂が折れる瞬間を待っている。そして、その『最も美しい瞬間』を切り取って、永遠にコレクションしやがる。</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>あいつはな、ただの商人じゃねえ。……『剥製師（はくせいし）』なんだ。</t>
+          <t>英雄が絶望し、魂が折れる瞬間を待っている。そして、その『最も美しい瞬間』を切り取って、永遠にコレクションしやがる。</t>
         </is>
       </c>
     </row>
@@ -2344,148 +2339,143 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>balgas_4</t>
+          <t>balgas_5</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>英雄が絶望し、魂が折れる瞬間を待っている。そして、その『最も美しい瞬間』を切り取って、永遠にコレクションしやがる。</t>
+          <t>カインの時もそうだ……あいつはただ、お前が友を裏切るかどうかをニヤニヤしながら見てたんだよ。</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>英雄が絶望し、魂が折れる瞬間を待っている。そして、その『最も美しい瞬間』を切り取って、永遠にコレクションしやがる。</t>
+          <t>カインの時もそうだ……あいつはただ、お前が友を裏切るかどうかをニヤニヤしながら見てたんだよ。</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="F116" t="inlineStr">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>check_kain</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>check_kain</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>switch_flag(chitsii.arena.player.kain_soul_choice, after_kain, kain_event, after_kain)</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>kain_event</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>narr_23</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>（バルガスは一瞬、言葉を止め、あなたを鋭く見つめる。）</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>（バルガスは一瞬、言葉を止め、あなたを鋭く見つめる。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="F121" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>balgas_5</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>カインの時もそうだ……あいつはただ、お前が友を裏切るかどうかをニヤニヤしながら見てたんだよ。</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>カインの時もそうだ……あいつはただ、お前が友を裏切るかどうかをニヤニヤしながら見てたんだよ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>check_kain</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>check_kain</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>kain_event</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.kain_soul_choice, ==1)</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>after_kain</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.kain_soul_choice, ==0)</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>kain_event</t>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>balgas_6</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>……おい。一つ、聞いていいか。</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>……おい。一つ、聞いていいか。</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="F122" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>narr_23</t>
+          <t>balgas_7</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>（バルガスは一瞬、言葉を止め、あなたを鋭く見つめる。）</t>
+          <t>あの時……カインの魂の欠片。本当に、見つからなかったのか？</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>（バルガスは一瞬、言葉を止め、あなたを鋭く見つめる。）</t>
+          <t>あの時……カインの魂の欠片。本当に、見つからなかったのか？</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="F123" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>balgas_6</t>
+          <t>narr_24</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>……おい。一つ、聞いていいか。</t>
+          <t>（バルガスの手が微かに震えている。）</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>……おい。一つ、聞いていいか。</t>
+          <t>（バルガスの手が微かに震えている。）</t>
         </is>
       </c>
     </row>
@@ -2497,195 +2487,195 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>balgas_7</t>
+          <t>balgas_8</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>あの時……カインの魂の欠片。本当に、見つからなかったのか？</t>
+          <t>いや……俺の勘違いかもしれねえ。だが、ゼクの野郎がやたらと上機嫌だった時期があってな。……まるで、『最高の獲物』を手に入れたような顔をしてやがった。</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>あの時……カインの魂の欠片。本当に、見つからなかったのか？</t>
+          <t>いや……俺の勘違いかもしれねえ。だが、ゼクの野郎がやたらと上機嫌だった時期があってな。……まるで、『最高の獲物』を手に入れたような顔をしてやがった。</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="F125" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>narr_24</t>
+          <t>balgas_9</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>（バルガスの手が微かに震えている。）</t>
+          <t>……お前が、あいつに何か『売った』なんてことは……ないよな？</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>（バルガスの手が微かに震えている。）</t>
+          <t>……お前が、あいつに何か『売った』なんてことは……ないよな？</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>balgas_8</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>いや……俺の勘違いかもしれねえ。だが、ゼクの野郎がやたらと上機嫌だった時期があってな。……まるで、『最高の獲物』を手に入れたような顔をしてやがった。</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>いや……俺の勘違いかもしれねえ。だが、ゼクの野郎がやたらと上機嫌だった時期があってな。……まるで、『最高の獲物』を手に入れたような顔をしてやがった。</t>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>kain_choice</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>kain_confess</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>balgas_9</t>
+          <t>c_kain_confess</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>……お前が、あいつに何か『売った』なんてことは……ないよな？</t>
+          <t>……すまない。カインの魂を、ゼクに売った</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>……お前が、あいつに何か『売った』なんてことは……ないよな？</t>
+          <t>……すまない。カインの魂を、ゼクに売った</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>kain_choice</t>
+          <t>kain_lie</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>c_kain_lie</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>見つからなかった。ゼクとは関係ない</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>見つからなかった。ゼクとは関係ない</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="inlineStr">
+      <c r="A129" t="inlineStr">
         <is>
           <t>kain_confess</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>c_kain_confess</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>……すまない。カインの魂を、ゼクに売った</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>……すまない。カインの魂を、ゼクに売った</t>
-        </is>
-      </c>
     </row>
     <row r="130">
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>kain_lie</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>c_kain_lie</t>
+          <t>narr_25</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>見つからなかった。ゼクとは関係ない</t>
+          <t>（バルガスは深く息を吐き、拳を握りしめる。）</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>見つからなかった。ゼクとは関係ない</t>
+          <t>（バルガスは深く息を吐き、拳を握りしめる。）</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>kain_confess</t>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>narr_26</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>（バルガスの目に、怒りと失望、そして深い悲しみが宿る。）</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>（バルガスの目に、怒りと失望、そして深い悲しみが宿る。）</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="F132" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>narr_25</t>
+          <t>balgas_10</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>（バルガスは深く息を吐き、拳を握りしめる。）</t>
+          <t>……そうか。お前は、俺の相棒を……カインを、二度殺したんだな。</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>（バルガスは深く息を吐き、拳を握りしめる。）</t>
+          <t>……そうか。お前は、俺の相棒を……カインを、二度殺したんだな。</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="F133" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>narr_26</t>
+          <t>balgas_11</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>（バルガスの目に、怒りと失望、そして深い悲しみが宿る。）</t>
+          <t>一度目は、異次元の錆に魂を食われて。二度目は、お前に売り飛ばされて。</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>（バルガスの目に、怒りと失望、そして深い悲しみが宿る。）</t>
+          <t>一度目は、異次元の錆に魂を食われて。二度目は、お前に売り飛ばされて。</t>
         </is>
       </c>
     </row>
@@ -2697,17 +2687,17 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>balgas_10</t>
+          <t>balgas_12</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>……そうか。お前は、俺の相棒を……カインを、二度殺したんだな。</t>
+          <t>……ハッ、俺はなんてマヌケだ。お前を『カイン以上の戦士』だと思っちまってた。</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>……そうか。お前は、俺の相棒を……カインを、二度殺したんだな。</t>
+          <t>……ハッ、俺はなんてマヌケだ。お前を『カイン以上の戦士』だと思っちまってた。</t>
         </is>
       </c>
     </row>
@@ -2719,17 +2709,17 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>balgas_11</t>
+          <t>balgas_13</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>一度目は、異次元の錆に魂を食われて。二度目は、お前に売り飛ばされて。</t>
+          <t>……いいか、鴉。いや、もうお前を鴉とは呼ばねえ。俺はこれでも、裏切られ慣れてる。だから、お前を殺したりはしない。</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>一度目は、異次元の錆に魂を食われて。二度目は、お前に売り飛ばされて。</t>
+          <t>……いいか、鴉。いや、もうお前を鴉とは呼ばねえ。俺はこれでも、裏切られ慣れてる。だから、お前を殺したりはしない。</t>
         </is>
       </c>
     </row>
@@ -2741,61 +2731,41 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>balgas_12</t>
+          <t>balgas_14</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>……ハッ、俺はなんてマヌケだ。お前を『カイン以上の戦士』だと思っちまってた。</t>
+          <t>だが……もう二度と、俺に『友』として話しかけるな。お前は今日から、ただの『契約闘士』だ。それ以上でも、それ以下でもねえ。</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>……ハッ、俺はなんてマヌケだ。お前を『カイン以上の戦士』だと思っちまってた。</t>
+          <t>だが……もう二度と、俺に『友』として話しかけるな。お前は今日から、ただの『契約闘士』だ。それ以上でも、それ以下でもねえ。</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>balgas_13</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>……いいか、鴉。いや、もうお前を鴉とは呼ばねえ。俺はこれでも、裏切られ慣れてる。だから、お前を殺したりはしない。</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>……いいか、鴉。いや、もうお前を鴉とは呼ばねえ。俺はこれでも、裏切られ慣れてる。だから、お前を殺したりはしない。</t>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.kain_soul_confession,0</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>balgas_14</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>だが……もう二度と、俺に『友』として話しかけるな。お前は今日から、ただの『契約闘士』だ。それ以上でも、それ以下でもねえ。</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>だが……もう二度と、俺に『友』として話しかけるな。お前は今日から、ただの『契約闘士』だ。それ以上でも、それ以下でもねえ。</t>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>chitsii.arena.rel.balgas,0</t>
         </is>
       </c>
     </row>
@@ -2807,503 +2777,503 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.kain_soul_confession,0</t>
+          <t>chitsii.arena.player.balgas_trust_broken,1</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="D140" t="inlineStr">
         <is>
-          <t>setFlag</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>chitsii.arena.rel.balgas,0</t>
+          <t>mod_flag(chitsii.arena.player.karma, -20)</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.balgas_trust_broken,1</t>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>after_kain</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.player.karma, -20)</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>kain_lie</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>after_kain</t>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>narr_27</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>（バルガスは視線を逸らし、深く息を吐く。）</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>（バルガスは視線を逸らし、深く息を吐く。）</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>kain_lie</t>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>narr_28</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>（バルガスが信じたいが、心の奥では真実を察している。）</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>（バルガスが信じたいが、心の奥では真実を察している。）</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="F145" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>narr_27</t>
+          <t>balgas_15</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>（バルガスは視線を逸らし、深く息を吐く。）</t>
+          <t>……そうか。</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>（バルガスは視線を逸らし、深く息を吐く。）</t>
+          <t>……そうか。</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="F146" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>narr_28</t>
+          <t>balgas_16</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>（バルガスが信じたいが、心の奥では真実を察している。）</t>
+          <t>……なら、いい。……いや、よかねえな。俺の勘が外れてることを祈るよ。</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>（バルガスが信じたいが、心の奥では真実を察している。）</t>
+          <t>……なら、いい。……いや、よかねえな。俺の勘が外れてることを祈るよ。</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="F147" t="inlineStr">
         <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>narr_29</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>（バルガスがあなたの肩を叩くが、その手には以前のような力強さがない。）</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>（バルガスがあなたの肩を叩くが、その手には以前のような力強さがない。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.kain_soul_confession,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>chitsii.arena.rel.balgas,30</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>after_kain</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>after_kain</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="F152" t="inlineStr">
+        <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>balgas_15</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>……そうか。</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>……そうか。</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="F148" t="inlineStr">
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>balgas_17</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>いいか、鴉……いや、戦鬼。あいつの言葉に耳を貸すな。真実なんてのは、アスタロトの首を獲った後に、自分の目で見りゃいい。</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>いいか、鴉……いや、戦鬼。あいつの言葉に耳を貸すな。真実なんてのは、アスタロトの首を獲った後に、自分の目で見りゃいい。</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="F153" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>balgas_16</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>……なら、いい。……いや、よかねえな。俺の勘が外れてることを祈るよ。</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>……なら、いい。……いや、よかねえな。俺の勘が外れてることを祈るよ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>narr_29</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>（バルガスがあなたの肩を叩くが、その手には以前のような力強さがない。）</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>（バルガスがあなたの肩を叩くが、その手には以前のような力強さがない。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.kain_soul_confession,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>chitsii.arena.rel.balgas,30</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>after_kain</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>after_kain</t>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>balgas_18</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>影に潜む奴に背中を見せるなよ。……お前まで『物言わぬコレクション』にされるのは、俺の酒が不味くなるからな。</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>影に潜む奴に背中を見せるなよ。……お前まで『物言わぬコレクション』にされるのは、俺の酒が不味くなるからな。</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>balgas_17</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>いいか、鴉……いや、戦鬼。あいつの言葉に耳を貸すな。真実なんてのは、アスタロトの首を獲った後に、自分の目で見りゃいい。</t>
-        </is>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>いいか、鴉……いや、戦鬼。あいつの言葉に耳を貸すな。真実なんてのは、アスタロトの首を獲った後に、自分の目で見りゃいい。</t>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>final_choice</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>final_thanks</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>balgas_18</t>
+          <t>c_final_thanks</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>影に潜む奴に背中を見せるなよ。……お前まで『物言わぬコレクション』にされるのは、俺の酒が不味くなるからな。</t>
+          <t>……ありがとう</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>影に潜む奴に背中を見せるなよ。……お前まで『物言わぬコレクション』にされるのは、俺の酒が不味くなるからな。</t>
+          <t>……ありがとう</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>final_choice</t>
+          <t>final_trust</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>c_final_trust</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>バルガスの言葉を信じる</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>バルガスの言葉を信じる</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
+          <t>final_knowledge</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>c_final_knowledge</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>ゼクの知識をさらに求める</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>ゼクの知識をさらに求める</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
           <t>final_thanks</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>c_final_thanks</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>……ありがとう</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>……ありがとう</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="B158" t="inlineStr">
+    </row>
+    <row r="159">
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>balgas_r1</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>……気をつけろ。生きて戻ってこい。</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>……気をつけろ。生きて戻ってこい。</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>scene4_completion</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
         <is>
           <t>final_trust</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>c_final_trust</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>バルガスの言葉を信じる</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>バルガスの言葉を信じる</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="B159" t="inlineStr">
+    </row>
+    <row r="162">
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>balgas_r2</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>……よし。それでいい。</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>……よし。それでいい。</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>mod_flag(chitsii.arena.rel.balgas, +10)</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>scene4_completion</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
         <is>
           <t>final_knowledge</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>c_final_knowledge</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>ゼクの知識をさらに求める</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>ゼクの知識をさらに求める</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>final_thanks</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="F161" t="inlineStr">
+    </row>
+    <row r="166">
+      <c r="F166" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>balgas_r1</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>……気をつけろ。生きて戻ってこい。</t>
-        </is>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>……気をつけろ。生きて戻ってこい。</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="B162" t="inlineStr">
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>balgas_r3</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>……ケッ、お前の好きにしろ。だが、後悔するなよ。</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>……ケッ、お前の好きにしろ。だが、後悔するなよ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>mod_flag(chitsii.arena.rel.balgas, -5)</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" t="inlineStr">
         <is>
           <t>scene4_completion</t>
         </is>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>final_trust</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>balgas_r2</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>……よし。それでいい。</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>……よし。それでいい。</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.rel.balgas, +10)</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="B166" t="inlineStr">
+    <row r="169">
+      <c r="A169" t="inlineStr">
         <is>
           <t>scene4_completion</t>
         </is>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>final_knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>balgas_r3</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>……ケッ、お前の好きにしろ。だが、後悔するなよ。</t>
-        </is>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>……ケッ、お前の好きにしろ。だが、後悔するなよ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.rel.balgas, -5)</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
     <row r="170">
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>scene4_completion</t>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Tranquil");             var data = SoundManager.current.GetData("BGM/Lily_Tranquil");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Tranquil");             }</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>scene4_completion</t>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="D172" t="inlineStr">
         <is>
-          <t>eval</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Tranquil");             var data = SoundManager.current.GetData("BGM/Lily_Tranquil");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Tranquil");             }</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
@@ -3315,31 +3285,51 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>narr_30</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>（素材を集め、虚空の心臓を完成させたあなた。それを手にしたあなたは、リリィのもとへ向かう。）</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>（素材を集め、虚空の心臓を完成させたあなた。それを手にしたあなたは、リリィのもとへ向かう。）</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>lily_27</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>……完成したのですね。見せてください。</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>……完成したのですね。見せてください。</t>
         </is>
       </c>
     </row>
@@ -3351,17 +3341,17 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>narr_30</t>
+          <t>narr_31</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>（素材を集め、虚空の心臓を完成させたあなた。それを手にしたあなたは、リリィのもとへ向かう。）</t>
+          <t>（リリィが虚空の心臓を手に取り、魔力を流し込む。）</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>（素材を集め、虚空の心臓を完成させたあなた。それを手にしたあなたは、リリィのもとへ向かう。）</t>
+          <t>（リリィが虚空の心臓を手に取り、魔力を流し込む。）</t>
         </is>
       </c>
     </row>
@@ -3373,61 +3363,61 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>lily_27</t>
+          <t>lily_28</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>……完成したのですね。見せてください。</t>
+          <t>……完璧です。あなたの魔力と技術が、この異次元の構造を支える楔となりました。</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>……完成したのですね。見せてください。</t>
+          <t>……完璧です。あなたの魔力と技術が、この異次元の構造を支える楔となりました。</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="F178" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>narr_31</t>
+          <t>lily_29</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>（リリィが虚空の心臓を手に取り、魔力を流し込む。）</t>
+          <t>これで、ランクAへの挑戦権を授与いたします。……ふふ、あなたは既に、この異次元の一部となりました。誇っていいですよ。</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>（リリィが虚空の心臓を手に取り、魔力を流し込む。）</t>
+          <t>これで、ランクAへの挑戦権を授与いたします。……ふふ、あなたは既に、この異次元の一部となりました。誇っていいですよ。</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="F179" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>lily_28</t>
+          <t>narr_32</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>……完璧です。あなたの魔力と技術が、この異次元の構造を支える楔となりました。</t>
+          <t>（彼女は台帳に何かを書き込む。）</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>……完璧です。あなたの魔力と技術が、この異次元の構造を支える楔となりました。</t>
+          <t>（彼女は台帳に何かを書き込む。）</t>
         </is>
       </c>
     </row>
@@ -3439,92 +3429,48 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>lily_29</t>
+          <t>lily_30</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>これで、ランクAへの挑戦権を授与いたします。……ふふ、あなたは既に、この異次元の一部となりました。誇っていいですよ。</t>
+          <t>報酬として、**小さなコイン30枚**と**プラチナコイン15枚**を記録いたします。……それと、あなたは『虚空と共鳴する者』としての称号を獲得しました。</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>これで、ランクAへの挑戦権を授与いたします。……ふふ、あなたは既に、この異次元の一部となりました。誇っていいですよ。</t>
+          <t>報酬として、**小さなコイン30枚**と**プラチナコイン15枚**を記録いたします。……それと、あなたは『虚空と共鳴する者』としての称号を獲得しました。</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>narr_32</t>
-        </is>
-      </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>（彼女は台帳に何かを書き込む。）</t>
-        </is>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>（彼女は台帳に何かを書き込む。）</t>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>for(int i=0; i&lt;30; i++) { EClass.pc.Pick(ThingGen.Create(\"coin\")); } for(int i=0; i&lt;15; i++) { EClass.pc.Pick(ThingGen.Create(\"plat\")); }</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>lily_30</t>
-        </is>
-      </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>報酬として、**小さなコイン30枚**と**プラチナコイン15枚**を記録いたします。……それと、あなたは『虚空と共鳴する者』としての称号を獲得しました。</t>
-        </is>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>報酬として、**小さなコイン30枚**と**プラチナコイン15枚**を記録いたします。……それと、あなたは『虚空と共鳴する者』としての称号を獲得しました。</t>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>for(int i=0; i&lt;30; i++) { EClass.pc.Pick(ThingGen.Create(\"coin\")); } for(int i=0; i&lt;15; i++) { EClass.pc.Pick(ThingGen.Create(\"plat\")); }</t>
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="D186" t="inlineStr">
+      <c r="D184" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_makuma2.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_makuma2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K184"/>
+  <dimension ref="A1:K179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1658,55 +1658,70 @@
     <row r="72">
       <c r="D72" t="inlineStr">
         <is>
-          <t>setFlag</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>chitsii.arena.rel.lily,20</t>
+          <t>Elin_SukutsuArena.ArenaManager.Makuma2ConfessToLily();</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.lily_trust_rebuilding,1</t>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>after_bottle</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.player.karma, +5)</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>bottle_blame</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>lily_r5</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>……そう、ですか。</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>……そう、ですか。</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="F76" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-    </row>
-    <row r="75">
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>after_bottle</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>bottle_blame</t>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>narr_16</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>（リリィが破片を丁寧に片付け、いつもの事務的な表情に戻る。）</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>（リリィが破片を丁寧に片付け、いつもの事務的な表情に戻る。）</t>
         </is>
       </c>
     </row>
@@ -1718,131 +1733,121 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>lily_r5</t>
+          <t>lily_19</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>……そう、ですか。</t>
+          <t>それなら仕方ありませんね。ゼクという男は、そういう生き物ですから。</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>……そう、ですか。</t>
+          <t>それなら仕方ありませんね。ゼクという男は、そういう生き物ですから。</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>narr_16</t>
+          <t>lily_20</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>（リリィが破片を丁寧に片付け、いつもの事務的な表情に戻る。）</t>
+          <t>……さあ、虚空の心臓の製作に取り掛かりましょう。時間がありません。</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>（リリィが破片を丁寧に片付け、いつもの事務的な表情に戻る。）</t>
+          <t>……さあ、虚空の心臓の製作に取り掛かりましょう。時間がありません。</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>lily_19</t>
+          <t>narr_17</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>それなら仕方ありませんね。ゼクという男は、そういう生き物ですから。</t>
+          <t>（リリィの尻尾だけが、不機嫌そうに床を叩いている。）</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>それなら仕方ありませんね。ゼクという男は、そういう生き物ですから。</t>
+          <t>（リリィの尻尾だけが、不機嫌そうに床を叩いている。）</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>lily_20</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>……さあ、虚空の心臓の製作に取り掛かりましょう。時間がありません。</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>……さあ、虚空の心臓の製作に取り掛かりましょう。時間がありません。</t>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.lily_bottle_confession,1</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="inlineStr">
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.Makuma2BlameZek();</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>after_bottle</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>bottle_deny</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="F84" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>narr_17</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>（リリィの尻尾だけが、不機嫌そうに床を叩いている。）</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>（リリィの尻尾だけが、不機嫌そうに床を叩いている。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.lily_bottle_confession,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>after_bottle</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>bottle_deny</t>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>narr_18</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>（リリィの表情が凍りつく。）</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>（リリィの表情が凍りつく。）</t>
         </is>
       </c>
     </row>
@@ -1854,39 +1859,39 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>narr_18</t>
+          <t>narr_19</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>（リリィの表情が凍りつく。）</t>
+          <t>（リリィの周囲に冷気のような波動が広がる。）</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>（リリィの表情が凍りつく。）</t>
+          <t>（リリィの周囲に冷気のような波動が広がる。）</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>narr_19</t>
+          <t>lily_21</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>（リリィの周囲に冷気のような波動が広がる。）</t>
+          <t>……そうですか。私の、管理ミス。</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>（リリィの周囲に冷気のような波動が広がる。）</t>
+          <t>……そうですか。私の、管理ミス。</t>
         </is>
       </c>
     </row>
@@ -1898,17 +1903,17 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>lily_21</t>
+          <t>lily_22</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>……そうですか。私の、管理ミス。</t>
+          <t>ふふふ……ええ、そうかもしれませんね。私が、あなたという『獣』を『人間』だと勘違いしていた。それが最大のミスでした。</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>……そうですか。私の、管理ミス。</t>
+          <t>ふふふ……ええ、そうかもしれませんね。私が、あなたという『獣』を『人間』だと勘違いしていた。それが最大のミスでした。</t>
         </is>
       </c>
     </row>
@@ -1920,326 +1925,341 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>lily_22</t>
+          <t>lily_23</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>ふふふ……ええ、そうかもしれませんね。私が、あなたという『獣』を『人間』だと勘違いしていた。それが最大のミスでした。</t>
+          <t>結構です。どうぞ、虚空の心臓でも何でも作って、アスタロト様に挑んでください。……私は、もうあなたに期待しません。</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>ふふふ……ええ、そうかもしれませんね。私が、あなたという『獣』を『人間』だと勘違いしていた。それが最大のミスでした。</t>
+          <t>結構です。どうぞ、虚空の心臓でも何でも作って、アスタロト様に挑んでください。……私は、もうあなたに期待しません。</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>lily_23</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>結構です。どうぞ、虚空の心臓でも何でも作って、アスタロト様に挑んでください。……私は、もうあなたに期待しません。</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>結構です。どうぞ、虚空の心臓でも何でも作って、アスタロト様に挑んでください。……私は、もうあなたに期待しません。</t>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.lily_bottle_confession,2</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="D90" t="inlineStr">
         <is>
-          <t>setFlag</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.lily_bottle_confession,2</t>
+          <t>Elin_SukutsuArena.ArenaManager.Makuma2DenyInvolvement();</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>chitsii.arena.rel.lily,0</t>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>after_bottle</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.lily_hostile,1</t>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>after_bottle</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.player.karma, -30)</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>scene2_crafting</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>after_bottle</t>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>scene2_crafting</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>after_bottle</t>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Crafting_Ambient");             var data = SoundManager.current.GetData("BGM/Crafting_Ambient");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Crafting_Ambient");             }</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>scene2_crafting</t>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>lily_24</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>必要な素材は以下の通りです。</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>必要な素材は以下の通りです。</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>scene2_crafting</t>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>lily_25</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>**高品質な宝石×3**、**エーテルの結晶×5**、そしてゼクの店で購入できる**『星の断片』×1**。これらを『宝石細工』または『機械製作』の技術で練り上げてください。</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>**高品質な宝石×3**、**エーテルの結晶×5**、そしてゼクの店で購入できる**『星の断片』×1**。これらを『宝石細工』または『機械製作』の技術で練り上げてください。</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Crafting_Ambient");             var data = SoundManager.current.GetData("BGM/Crafting_Ambient");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Crafting_Ambient");             }</t>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>lily_26</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>……完成したら、私に見せてください。台帳に記録し、ランクAへの挑戦権を授与いたします。</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>……完成したら、私に見せてください。台帳に記録し、ランクAへの挑戦権を授与いたします。</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="F99" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>lily_24</t>
+          <t>narr_20</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>必要な素材は以下の通りです。</t>
+          <t>（プレースホルダー：ここで実際の製作処理を行う。）</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>必要な素材は以下の通りです。</t>
+          <t>（プレースホルダー：ここで実際の製作処理を行う。）</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>lily_25</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>**高品質な宝石×3**、**エーテルの結晶×5**、そしてゼクの店で購入できる**『星の断片』×1**。これらを『宝石細工』または『機械製作』の技術で練り上げてください。</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>**高品質な宝石×3**、**エーテルの結晶×5**、そしてゼクの店で購入できる**『星の断片』×1**。これらを『宝石細工』または『機械製作』の技術で練り上げてください。</t>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>scene3_balgas_warning</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>lily_26</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>……完成したら、私に見せてください。台帳に記録し、ランクAへの挑戦権を授与いたします。</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>……完成したら、私に見せてください。台帳に記録し、ランクAへの挑戦権を授与いたします。</t>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>scene3_balgas_warning</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>narr_20</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>（プレースホルダー：ここで実際の製作処理を行う。）</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>（プレースホルダー：ここで実際の製作処理を行う。）</t>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_01");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_01");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_01");             }</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>scene3_balgas_warning</t>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>scene3_balgas_warning</t>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="D105" t="inlineStr">
         <is>
-          <t>eval</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_01");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_01");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_01");             }</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>narr_21</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>（リリィとの打ち合わせを終え、素材を探しに出ようとするあなたの腕を、酒臭い、しかし岩のように力強い手が掴んだ。）</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>（リリィとの打ち合わせを終え、素材を探しに出ようとするあなたの腕を、酒臭い、しかし岩のように力強い手が掴んだ。）</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>narr_22</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>（バルガスだ。彼はあなたを人気の無い柱の影へと引きずり込み、周囲を警戒しながら低く、掠れた声で話し始めた。）</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>（バルガスだ。彼はあなたを人気の無い柱の影へと引きずり込み、周囲を警戒しながら低く、掠れた声で話し始めた。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="F108" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-    </row>
-    <row r="108">
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>balgas_1</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>……おい、待て。リリィの女狐に言われるがまま、あいつ（ゼク）の店へ行くつもりか？</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>……おい、待て。リリィの女狐に言われるがまま、あいつ（ゼク）の店へ行くつもりか？</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="F109" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>narr_21</t>
+          <t>balgas_2</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>（リリィとの打ち合わせを終え、素材を探しに出ようとするあなたの腕を、酒臭い、しかし岩のように力強い手が掴んだ。）</t>
+          <t>最近のお前は、あいつの吐く『毒』を飲みすぎだ。ヌルの記憶チップだの、世界のバグだの……ゼクが語る『真実』ってのはな、お前の足を止めるための泥濘（ぬかるみ）なんだよ。</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>（リリィとの打ち合わせを終え、素材を探しに出ようとするあなたの腕を、酒臭い、しかし岩のように力強い手が掴んだ。）</t>
+          <t>最近のお前は、あいつの吐く『毒』を飲みすぎだ。ヌルの記憶チップだの、世界のバグだの……ゼクが語る『真実』ってのはな、お前の足を止めるための泥濘（ぬかるみ）なんだよ。</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="F110" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>narr_22</t>
+          <t>balgas_3</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>（バルガスだ。彼はあなたを人気の無い柱の影へと引きずり込み、周囲を警戒しながら低く、掠れた声で話し始めた。）</t>
+          <t>あいつはな、ただの商人じゃねえ。……『剥製師（はくせいし）』なんだ。</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>（バルガスだ。彼はあなたを人気の無い柱の影へと引きずり込み、周囲を警戒しながら低く、掠れた声で話し始めた。）</t>
+          <t>あいつはな、ただの商人じゃねえ。……『剥製師（はくせいし）』なんだ。</t>
         </is>
       </c>
     </row>
@@ -2251,17 +2271,17 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>balgas_1</t>
+          <t>balgas_4</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>……おい、待て。リリィの女狐に言われるがまま、あいつ（ゼク）の店へ行くつもりか？</t>
+          <t>英雄が絶望し、魂が折れる瞬間を待っている。そして、その『最も美しい瞬間』を切り取って、永遠にコレクションしやがる。</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>……おい、待て。リリィの女狐に言われるがまま、あいつ（ゼク）の店へ行くつもりか？</t>
+          <t>英雄が絶望し、魂が折れる瞬間を待っている。そして、その『最も美しい瞬間』を切り取って、永遠にコレクションしやがる。</t>
         </is>
       </c>
     </row>
@@ -2273,121 +2293,121 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>balgas_2</t>
+          <t>balgas_5</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>最近のお前は、あいつの吐く『毒』を飲みすぎだ。ヌルの記憶チップだの、世界のバグだの……ゼクが語る『真実』ってのはな、お前の足を止めるための泥濘（ぬかるみ）なんだよ。</t>
+          <t>カインの時もそうだ……あいつはただ、お前が友を裏切るかどうかをニヤニヤしながら見てたんだよ。</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>最近のお前は、あいつの吐く『毒』を飲みすぎだ。ヌルの記憶チップだの、世界のバグだの……ゼクが語る『真実』ってのはな、お前の足を止めるための泥濘（ぬかるみ）なんだよ。</t>
+          <t>カインの時もそうだ……あいつはただ、お前が友を裏切るかどうかをニヤニヤしながら見てたんだよ。</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="F113" t="inlineStr">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>check_kain</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>check_kain</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>switch_flag(chitsii.arena.player.kain_soul_choice, after_kain, kain_event, after_kain)</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>kain_event</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>narr_23</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>（バルガスは一瞬、言葉を止め、あなたを鋭く見つめる。）</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>（バルガスは一瞬、言葉を止め、あなたを鋭く見つめる。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="F118" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>balgas_3</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>あいつはな、ただの商人じゃねえ。……『剥製師（はくせいし）』なんだ。</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>あいつはな、ただの商人じゃねえ。……『剥製師（はくせいし）』なんだ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="F114" t="inlineStr">
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>balgas_6</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>……おい。一つ、聞いていいか。</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>……おい。一つ、聞いていいか。</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="F119" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>balgas_4</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>英雄が絶望し、魂が折れる瞬間を待っている。そして、その『最も美しい瞬間』を切り取って、永遠にコレクションしやがる。</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>英雄が絶望し、魂が折れる瞬間を待っている。そして、その『最も美しい瞬間』を切り取って、永遠にコレクションしやがる。</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>balgas_5</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>カインの時もそうだ……あいつはただ、お前が友を裏切るかどうかをニヤニヤしながら見てたんだよ。</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>カインの時もそうだ……あいつはただ、お前が友を裏切るかどうかをニヤニヤしながら見てたんだよ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>check_kain</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>check_kain</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>modInvoke</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>switch_flag(chitsii.arena.player.kain_soul_choice, after_kain, kain_event, after_kain)</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>kain_event</t>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>balgas_7</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>あの時……カインの魂の欠片。本当に、見つからなかったのか？</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>あの時……カインの魂の欠片。本当に、見つからなかったのか？</t>
         </is>
       </c>
     </row>
@@ -2399,17 +2419,17 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>narr_23</t>
+          <t>narr_24</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>（バルガスは一瞬、言葉を止め、あなたを鋭く見つめる。）</t>
+          <t>（バルガスの手が微かに震えている。）</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>（バルガスは一瞬、言葉を止め、あなたを鋭く見つめる。）</t>
+          <t>（バルガスの手が微かに震えている。）</t>
         </is>
       </c>
     </row>
@@ -2421,17 +2441,17 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>balgas_6</t>
+          <t>balgas_8</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>……おい。一つ、聞いていいか。</t>
+          <t>いや……俺の勘違いかもしれねえ。だが、ゼクの野郎がやたらと上機嫌だった時期があってな。……まるで、『最高の獲物』を手に入れたような顔をしてやがった。</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>……おい。一つ、聞いていいか。</t>
+          <t>いや……俺の勘違いかもしれねえ。だが、ゼクの野郎がやたらと上機嫌だった時期があってな。……まるで、『最高の獲物』を手に入れたような顔をしてやがった。</t>
         </is>
       </c>
     </row>
@@ -2443,195 +2463,195 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>balgas_7</t>
+          <t>balgas_9</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>あの時……カインの魂の欠片。本当に、見つからなかったのか？</t>
+          <t>……お前が、あいつに何か『売った』なんてことは……ないよな？</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>あの時……カインの魂の欠片。本当に、見つからなかったのか？</t>
+          <t>……お前が、あいつに何か『売った』なんてことは……ないよな？</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="F123" t="inlineStr">
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>kain_choice</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>kain_confess</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>c_kain_confess</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>……すまない。カインの魂を、ゼクに売った</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>……すまない。カインの魂を、ゼクに売った</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>kain_lie</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>c_kain_lie</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>見つからなかった。ゼクとは関係ない</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>見つからなかった。ゼクとは関係ない</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>kain_confess</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="F127" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>narr_24</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>（バルガスの手が微かに震えている。）</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>（バルガスの手が微かに震えている。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="F124" t="inlineStr">
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>narr_25</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>（バルガスは深く息を吐き、拳を握りしめる。）</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>（バルガスは深く息を吐き、拳を握りしめる。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>narr_26</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>（バルガスの目に、怒りと失望、そして深い悲しみが宿る。）</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>（バルガスの目に、怒りと失望、そして深い悲しみが宿る。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="F129" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>balgas_8</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>いや……俺の勘違いかもしれねえ。だが、ゼクの野郎がやたらと上機嫌だった時期があってな。……まるで、『最高の獲物』を手に入れたような顔をしてやがった。</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>いや……俺の勘違いかもしれねえ。だが、ゼクの野郎がやたらと上機嫌だった時期があってな。……まるで、『最高の獲物』を手に入れたような顔をしてやがった。</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>balgas_9</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>……お前が、あいつに何か『売った』なんてことは……ないよな？</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>……お前が、あいつに何か『売った』なんてことは……ないよな？</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>kain_choice</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>kain_confess</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>c_kain_confess</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>……すまない。カインの魂を、ゼクに売った</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>……すまない。カインの魂を、ゼクに売った</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>kain_lie</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>c_kain_lie</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>見つからなかった。ゼクとは関係ない</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>見つからなかった。ゼクとは関係ない</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>kain_confess</t>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>balgas_10</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>……そうか。お前は、俺の相棒を……カインを、二度殺したんだな。</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>……そうか。お前は、俺の相棒を……カインを、二度殺したんだな。</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="F130" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>narr_25</t>
+          <t>balgas_11</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>（バルガスは深く息を吐き、拳を握りしめる。）</t>
+          <t>一度目は、異次元の錆に魂を食われて。二度目は、お前に売り飛ばされて。</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>（バルガスは深く息を吐き、拳を握りしめる。）</t>
+          <t>一度目は、異次元の錆に魂を食われて。二度目は、お前に売り飛ばされて。</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="F131" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>narr_26</t>
+          <t>balgas_12</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>（バルガスの目に、怒りと失望、そして深い悲しみが宿る。）</t>
+          <t>……ハッ、俺はなんてマヌケだ。お前を『カイン以上の戦士』だと思っちまってた。</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>（バルガスの目に、怒りと失望、そして深い悲しみが宿る。）</t>
+          <t>……ハッ、俺はなんてマヌケだ。お前を『カイン以上の戦士』だと思っちまってた。</t>
         </is>
       </c>
     </row>
@@ -2643,17 +2663,17 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>balgas_10</t>
+          <t>balgas_13</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>……そうか。お前は、俺の相棒を……カインを、二度殺したんだな。</t>
+          <t>……いいか、鴉。いや、もうお前を鴉とは呼ばねえ。俺はこれでも、裏切られ慣れてる。だから、お前を殺したりはしない。</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>……そうか。お前は、俺の相棒を……カインを、二度殺したんだな。</t>
+          <t>……いいか、鴉。いや、もうお前を鴉とは呼ばねえ。俺はこれでも、裏切られ慣れてる。だから、お前を殺したりはしない。</t>
         </is>
       </c>
     </row>
@@ -2665,627 +2685,632 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>balgas_11</t>
+          <t>balgas_14</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>一度目は、異次元の錆に魂を食われて。二度目は、お前に売り飛ばされて。</t>
+          <t>だが……もう二度と、俺に『友』として話しかけるな。お前は今日から、ただの『契約闘士』だ。それ以上でも、それ以下でもねえ。</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>一度目は、異次元の錆に魂を食われて。二度目は、お前に売り飛ばされて。</t>
+          <t>だが……もう二度と、俺に『友』として話しかけるな。お前は今日から、ただの『契約闘士』だ。それ以上でも、それ以下でもねえ。</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="F134" t="inlineStr">
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.kain_soul_confession,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.Makuma2ConfessAboutKain();</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>after_kain</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>kain_lie</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>narr_27</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>（バルガスは視線を逸らし、深く息を吐く。）</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>（バルガスは視線を逸らし、深く息を吐く。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>narr_28</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>（バルガスが信じたいが、心の奥では真実を察している。）</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>（バルガスが信じたいが、心の奥では真実を察している。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="F140" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>balgas_12</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>……ハッ、俺はなんてマヌケだ。お前を『カイン以上の戦士』だと思っちまってた。</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>……ハッ、俺はなんてマヌケだ。お前を『カイン以上の戦士』だと思っちまってた。</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="F135" t="inlineStr">
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>balgas_15</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>……そうか。</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>……そうか。</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="F141" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>balgas_13</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>……いいか、鴉。いや、もうお前を鴉とは呼ばねえ。俺はこれでも、裏切られ慣れてる。だから、お前を殺したりはしない。</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>……いいか、鴉。いや、もうお前を鴉とは呼ばねえ。俺はこれでも、裏切られ慣れてる。だから、お前を殺したりはしない。</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>balgas_14</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>だが……もう二度と、俺に『友』として話しかけるな。お前は今日から、ただの『契約闘士』だ。それ以上でも、それ以下でもねえ。</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>だが……もう二度と、俺に『友』として話しかけるな。お前は今日から、ただの『契約闘士』だ。それ以上でも、それ以下でもねえ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="D137" t="inlineStr">
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>balgas_16</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>……なら、いい。……いや、よかねえな。俺の勘が外れてることを祈るよ。</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>……なら、いい。……いや、よかねえな。俺の勘が外れてることを祈るよ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>narr_29</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>（バルガスがあなたの肩を叩くが、その手には以前のような力強さがない。）</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>（バルガスがあなたの肩を叩くが、その手には以前のような力強さがない。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="D143" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.kain_soul_confession,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>chitsii.arena.rel.balgas,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.balgas_trust_broken,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.player.karma, -20)</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="B141" t="inlineStr">
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.kain_soul_confession,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.Makuma2LieAboutKain();</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" t="inlineStr">
         <is>
           <t>after_kain</t>
         </is>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>kain_lie</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>narr_27</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>（バルガスは視線を逸らし、深く息を吐く。）</t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>（バルガスは視線を逸らし、深く息を吐く。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>narr_28</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>（バルガスが信じたいが、心の奥では真実を察している。）</t>
-        </is>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>（バルガスが信じたいが、心の奥では真実を察している。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>balgas_15</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>……そうか。</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>……そうか。</t>
-        </is>
-      </c>
-    </row>
     <row r="146">
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>balgas_16</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>……なら、いい。……いや、よかねえな。俺の勘が外れてることを祈るよ。</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>……なら、いい。……いや、よかねえな。俺の勘が外れてることを祈るよ。</t>
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>after_kain</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="F147" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>narr_29</t>
+          <t>balgas_17</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>（バルガスがあなたの肩を叩くが、その手には以前のような力強さがない。）</t>
+          <t>いいか、鴉……いや、戦鬼。あいつの言葉に耳を貸すな。真実なんてのは、アスタロトの首を獲った後に、自分の目で見りゃいい。</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>（バルガスがあなたの肩を叩くが、その手には以前のような力強さがない。）</t>
+          <t>いいか、鴉……いや、戦鬼。あいつの言葉に耳を貸すな。真実なんてのは、アスタロトの首を獲った後に、自分の目で見りゃいい。</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.kain_soul_confession,1</t>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>balgas_18</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>影に潜む奴に背中を見せるなよ。……お前まで『物言わぬコレクション』にされるのは、俺の酒が不味くなるからな。</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>影に潜む奴に背中を見せるなよ。……お前まで『物言わぬコレクション』にされるのは、俺の酒が不味くなるからな。</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>chitsii.arena.rel.balgas,30</t>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>final_choice</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>after_kain</t>
+          <t>final_thanks</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>c_final_thanks</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>……ありがとう</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>……ありがとう</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>after_kain</t>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>final_trust</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>c_final_trust</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>バルガスの言葉を信じる</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>バルガスの言葉を信じる</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="F152" t="inlineStr">
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>final_knowledge</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>c_final_knowledge</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>ゼクの知識をさらに求める</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>ゼクの知識をさらに求める</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>final_thanks</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="F154" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>balgas_17</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>いいか、鴉……いや、戦鬼。あいつの言葉に耳を貸すな。真実なんてのは、アスタロトの首を獲った後に、自分の目で見りゃいい。</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>いいか、鴉……いや、戦鬼。あいつの言葉に耳を貸すな。真実なんてのは、アスタロトの首を獲った後に、自分の目で見りゃいい。</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>balgas_18</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>影に潜む奴に背中を見せるなよ。……お前まで『物言わぬコレクション』にされるのは、俺の酒が不味くなるからな。</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>影に潜む奴に背中を見せるなよ。……お前まで『物言わぬコレクション』にされるのは、俺の酒が不味くなるからな。</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>final_choice</t>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>balgas_r1</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>……気をつけろ。生きて戻ってこい。</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>……気をつけろ。生きて戻ってこい。</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>final_thanks</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>c_final_thanks</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>……ありがとう</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>……ありがとう</t>
+          <t>scene4_completion</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="inlineStr">
+      <c r="A156" t="inlineStr">
         <is>
           <t>final_trust</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>c_final_trust</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>バルガスの言葉を信じる</t>
-        </is>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>バルガスの言葉を信じる</t>
-        </is>
-      </c>
     </row>
     <row r="157">
-      <c r="B157" t="inlineStr">
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>balgas_r2</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>……よし。それでいい。</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>……よし。それでいい。</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.Makuma2ChooseTrust();</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>scene4_completion</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
         <is>
           <t>final_knowledge</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>c_final_knowledge</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>ゼクの知識をさらに求める</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>ゼクの知識をさらに求める</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>final_thanks</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="F159" t="inlineStr">
+    </row>
+    <row r="161">
+      <c r="F161" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>balgas_r1</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>……気をつけろ。生きて戻ってこい。</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>……気をつけろ。生きて戻ってこい。</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="B160" t="inlineStr">
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>balgas_r3</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>……ケッ、お前の好きにしろ。だが、後悔するなよ。</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>……ケッ、お前の好きにしろ。だが、後悔するなよ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.Makuma2ChooseKnowledge();</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" t="inlineStr">
         <is>
           <t>scene4_completion</t>
         </is>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>final_trust</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>balgas_r2</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>……よし。それでいい。</t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>……よし。それでいい。</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.rel.balgas, +10)</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
     <row r="164">
-      <c r="B164" t="inlineStr">
+      <c r="A164" t="inlineStr">
         <is>
           <t>scene4_completion</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>final_knowledge</t>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Tranquil");             var data = SoundManager.current.GetData("BGM/Lily_Tranquil");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Tranquil");             }</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>balgas_r3</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>……ケッ、お前の好きにしろ。だが、後悔するなよ。</t>
-        </is>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>……ケッ、お前の好きにしろ。だが、後悔するなよ。</t>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="D167" t="inlineStr">
         <is>
-          <t>invoke*</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>mod_flag(chitsii.arena.rel.balgas, -5)</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="F169" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-    </row>
-    <row r="168">
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>scene4_completion</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>scene4_completion</t>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>narr_30</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>（素材を集め、虚空の心臓を完成させたあなた。それを手にしたあなたは、リリィのもとへ向かう。）</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>（素材を集め、虚空の心臓を完成させたあなた。それを手にしたあなたは、リリィのもとへ向かう。）</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Tranquil");             var data = SoundManager.current.GetData("BGM/Lily_Tranquil");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Tranquil");             }</t>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>lily_27</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>……完成したのですね。見せてください。</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>……完成したのですね。見せてください。</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>narr_31</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>（リリィが虚空の心臓を手に取り、魔力を流し込む。）</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>（リリィが虚空の心臓を手に取り、魔力を流し込む。）</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>lily_28</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>……完璧です。あなたの魔力と技術が、この異次元の構造を支える楔となりました。</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>……完璧です。あなたの魔力と技術が、この異次元の構造を支える楔となりました。</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>lily_29</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>これで、ランクAへの挑戦権を授与いたします。……ふふ、あなたは既に、この異次元の一部となりました。誇っていいですよ。</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>これで、ランクAへの挑戦権を授与いたします。……ふふ、あなたは既に、この異次元の一部となりました。誇っていいですよ。</t>
         </is>
       </c>
     </row>
@@ -3297,17 +3322,17 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>narr_30</t>
+          <t>narr_32</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>（素材を集め、虚空の心臓を完成させたあなた。それを手にしたあなたは、リリィのもとへ向かう。）</t>
+          <t>（彼女は台帳に何かを書き込む。）</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>（素材を集め、虚空の心臓を完成させたあなた。それを手にしたあなたは、リリィのもとへ向かう。）</t>
+          <t>（彼女は台帳に何かを書き込む。）</t>
         </is>
       </c>
     </row>
@@ -3319,158 +3344,48 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>lily_27</t>
+          <t>lily_30</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>……完成したのですね。見せてください。</t>
+          <t>報酬として、**小さなコイン30枚**と**プラチナコイン15枚**を記録いたします。……それと、あなたは『虚空と共鳴する者』としての称号を獲得しました。</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>……完成したのですね。見せてください。</t>
+          <t>報酬として、**小さなコイン30枚**と**プラチナコイン15枚**を記録いたします。……それと、あなたは『虚空と共鳴する者』としての称号を獲得しました。</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>narr_31</t>
-        </is>
-      </c>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>（リリィが虚空の心臓を手に取り、魔力を流し込む。）</t>
-        </is>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>（リリィが虚空の心臓を手に取り、魔力を流し込む。）</t>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.GrantMakuma2Reward();</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>lily_28</t>
-        </is>
-      </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>……完璧です。あなたの魔力と技術が、この異次元の構造を支える楔となりました。</t>
-        </is>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>……完璧です。あなたの魔力と技術が、この異次元の構造を支える楔となりました。</t>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>lily_29</t>
-        </is>
-      </c>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>これで、ランクAへの挑戦権を授与いたします。……ふふ、あなたは既に、この異次元の一部となりました。誇っていいですよ。</t>
-        </is>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>これで、ランクAへの挑戦権を授与いたします。……ふふ、あなたは既に、この異次元の一部となりました。誇っていいですよ。</t>
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>narr_32</t>
-        </is>
-      </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>（彼女は台帳に何かを書き込む。）</t>
-        </is>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>（彼女は台帳に何かを書き込む。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>lily_30</t>
-        </is>
-      </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>報酬として、**小さなコイン30枚**と**プラチナコイン15枚**を記録いたします。……それと、あなたは『虚空と共鳴する者』としての称号を獲得しました。</t>
-        </is>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>報酬として、**小さなコイン30枚**と**プラチナコイン15枚**を記録いたします。……それと、あなたは『虚空と共鳴する者』としての称号を獲得しました。</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>for(int i=0; i&lt;30; i++) { EClass.pc.Pick(ThingGen.Create(\"coin\")); } for(int i=0; i&lt;15; i++) { EClass.pc.Pick(ThingGen.Create(\"plat\")); }</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="D184" t="inlineStr">
+      <c r="D179" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_makuma2.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_makuma2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K179"/>
+  <dimension ref="A1:K204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1034,12 +1034,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>（リリィが設計図を広げる中、彼女は棚の奥から、以前あなたが製作した『虚空の共鳴瓶』を取り出した。）</t>
+          <t>（リリィが設計図を広げる中、彼女は棚の奥から、以前あなたが製作した『死の共鳴瓶』を取り出した。）</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>（リリィが設計図を広げる中、彼女は棚の奥から、以前あなたが製作した『虚空の共鳴瓶』を取り出した。）</t>
+          <t>（リリィが設計図を広げる中、彼女は棚の奥から、以前あなたが製作した『死の共鳴瓶』を取り出した。）</t>
         </is>
       </c>
     </row>
@@ -1241,24 +1241,9 @@
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>narr_10</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>（プレースホルダー：暴走した怨念の影との戦闘が発生する。）</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>（プレースホルダー：暴走した怨念の影との戦闘が発生する。）</t>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
@@ -1270,17 +1255,17 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>narr_11</t>
+          <t>narr_10</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>（リリィは息を切らしながら、砕け散った偽物の瓶の破片を拾い上げる。）</t>
+          <t>（黒い霧から形成された怨念の影が、悲鳴のような咆哮を上げてあなたに襲いかかる！）</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>（リリィは息を切らしながら、砕け散った偽物の瓶の破片を拾い上げる。）</t>
+          <t>（黒い霧から形成された怨念の影が、悲鳴のような咆哮を上げてあなたに襲いかかる！）</t>
         </is>
       </c>
     </row>
@@ -1292,39 +1277,24 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>narr_12</t>
+          <t>narr_10_1</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>（その断面には、ゼク特有の『影の刻印』が刻まれていた。）</t>
+          <t>（リリィが叫ぶ。「私が抑え込む！ 今のうちに核を砕いて！」）</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>（その断面には、ゼク特有の『影の刻印』が刻まれていた。）</t>
+          <t>（リリィが叫ぶ。「私が抑え込む！ 今のうちに核を砕いて！」）</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>lily_12</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>……これは、ゼクの細工ね。間違いないわ。</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>……これは、ゼクの細工ね。間違いないわ。</t>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
@@ -1336,266 +1306,266 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>narr_13</t>
+          <t>narr_10_2</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>（リリィはゆっくりとあなたを振り返る。その瞳には、怒りと悲しみ、そして『裏切られたかもしれない』という疑念が混じり合っていた。）</t>
+          <t>（あなたは怨念の中心、脈動する黒い結晶を砕き、影を霧散させた。）</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>（リリィはゆっくりとあなたを振り返る。その瞳には、怒りと悲しみ、そして『裏切られたかもしれない』という疑念が混じり合っていた。）</t>
+          <t>（あなたは怨念の中心、脈動する黒い結晶を砕き、影を霧散させた。）</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
+          <t>narr_11</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>（リリィは息を切らしながら、砕け散った偽物の瓶の破片を拾い上げる。）</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>（リリィは息を切らしながら、砕け散った偽物の瓶の破片を拾い上げる。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>narr_12</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>（その断面には、ゼク特有の『影の刻印』が刻まれていた。）</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>（その断面には、ゼク特有の『影の刻印』が刻まれていた。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>lily_12</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>……これは、ゼクの細工ね。間違いないわ。</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>……これは、ゼクの細工ね。間違いないわ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>narr_13</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>（リリィはゆっくりとあなたを振り返る。その瞳には、怒りと悲しみ、そして『裏切られたかもしれない』という疑念が混じり合っていた。）</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>（リリィはゆっくりとあなたを振り返る。その瞳には、怒りと悲しみ、そして『裏切られたかもしれない』という疑念が混じり合っていた。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
           <t>lily_13</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>……答えて。あなたは、あの時私に渡した瓶が『偽物』だと知っていたの？ それとも、ゼクに騙されていたの？</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>……答えて。あなたは、あの時私に渡した瓶が『偽物』だと知っていたの？ それとも、ゼクに騙されていたの？</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="B58" t="inlineStr">
+    <row r="62">
+      <c r="B62" t="inlineStr">
         <is>
           <t>bottle_choice</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="B59" t="inlineStr">
+    <row r="63">
+      <c r="B63" t="inlineStr">
         <is>
           <t>bottle_confess</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>c_bottle_confess</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>……すまない。ゼクに唆されて、本物と偽物をすり替えた。君を裏切った</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>……すまない。ゼクに唆されて、本物と偽物をすり替えた。君を裏切った</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="B60" t="inlineStr">
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>……すまない。ゼクに唆されて、本物と偽物をすり替えた。君を裏切ってしまった</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>……すまない。ゼクに唆されて、本物と偽物をすり替えた。君を裏切ってしまった</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="inlineStr">
         <is>
           <t>bottle_blame</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>c_bottle_blame</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>知らなかった。ゼクが勝手に細工したんだ。俺は何も……</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>知らなかった。ゼクが勝手に細工したんだ。俺は何も……</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" t="inlineStr">
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>ゼクが勝手に細工したのだろう……</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ゼクが勝手に細工したのだろう……</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="inlineStr">
         <is>
           <t>bottle_deny</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>c_bottle_deny</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>俺が作った瓶に問題はなかった。お前の管理ミスだろう</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>俺が作った瓶に問題はなかった。お前の管理ミスだろう</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>何も知らない。君の管理ミスじゃないか？</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>何も知らない。君の管理ミスじゃないか？</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
         <is>
           <t>bottle_confess</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>lily_r4</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>……そう。</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>……そう。</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>narr_14</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>（リリィの肩が小刻みに震えている。）</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>（リリィの肩が小刻みに震えている。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>lily_14</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>……あなたは、私を『利用できる道具』だと思っていたのね。バルガスさんには友情を示し、私には欺瞞を。</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>……あなたは、私を『利用できる道具』だと思っていたのね。バルガスさんには友情を示し、私には欺瞞を。</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>lily_15</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>……ふふ、サキュバスが人間に裏切られるなんて、滑稽な話だわ。</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>……ふふ、サキュバスが人間に裏切られるなんて、滑稽な話だわ。</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>narr_15</t>
+          <t>lily_r4</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>（彼女は深く息を吐き、再びあなたを見つめる。）</t>
+          <t>……そう。</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>（彼女は深く息を吐き、再びあなたを見つめる。）</t>
+          <t>……そう。</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>lily_16</t>
+          <t>narr_14</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>でも……でもね。あなたが今、正直に話してくれたこと……それだけは、評価します。</t>
+          <t>（リリィの肩が小刻みに震えている。）</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>でも……でもね。あなたが今、正直に話してくれたこと……それだけは、評価します。</t>
+          <t>（リリィの肩が小刻みに震えている。）</t>
         </is>
       </c>
     </row>
@@ -1607,143 +1577,143 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>lily_17</t>
+          <t>lily_15</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>ゼクのような『完全な嘘つき』よりは、まだ救いがある。</t>
+          <t>……ふふ、サキュバスが人間に裏切られるなんて、滑稽な話だわ。</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>ゼクのような『完全な嘘つき』よりは、まだ救いがある。</t>
+          <t>……ふふ、サキュバスが人間に裏切られるなんて、滑稽な話だわ。</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
+          <t>narr_15</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>（彼女は深く息を吐き、再びあなたを見つめる。）</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>（彼女は深く息を吐き、再びあなたを見つめる。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>lily_16</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>でも……でもね。あなたが今、正直に話してくれたこと……それだけは、評価します。</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>でも……でもね。あなたが今、正直に話してくれたこと……それだけは、評価します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>lily_17</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>『嘘つき』よりは、まだ救いがある。</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>『嘘つき』よりは、まだ救いがある。</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
           <t>lily_18</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>……私は、あなたを許すわ。ただし、二度目はない。次にあなたが私を欺いたら……その時は、この爪であなたの喉を裂きます。約束よ。</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>……私は、あなたを許すわ。ただし、二度目はない。次にあなたが私を欺いたら……その時は、この爪であなたの喉を裂きます。約束よ。</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="D71" t="inlineStr">
+    <row r="74">
+      <c r="D74" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>chitsii.arena.player.lily_bottle_confession,0</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="D72" t="inlineStr">
+    <row r="75">
+      <c r="D75" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.Makuma2ConfessToLily();</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="B73" t="inlineStr">
+    <row r="76">
+      <c r="B76" t="inlineStr">
         <is>
           <t>after_bottle</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>bottle_blame</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>lily_r5</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>……そう、ですか。</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>……そう、ですか。</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>narr_16</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>（リリィが破片を丁寧に片付け、いつもの事務的な表情に戻る。）</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>（リリィが破片を丁寧に片付け、いつもの事務的な表情に戻る。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>lily_19</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>それなら仕方ありませんね。ゼクという男は、そういう生き物ですから。</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>それなら仕方ありませんね。ゼクという男は、そういう生き物ですから。</t>
         </is>
       </c>
     </row>
@@ -1755,17 +1725,17 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>lily_20</t>
+          <t>lily_r5</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>……さあ、虚空の心臓の製作に取り掛かりましょう。時間がありません。</t>
+          <t>……そう、ですか。</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>……さあ、虚空の心臓の製作に取り掛かりましょう。時間がありません。</t>
+          <t>……そう、ですか。</t>
         </is>
       </c>
     </row>
@@ -1777,637 +1747,637 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
+          <t>narr_16</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>（リリィが破片を丁寧に片付け、いつもの事務的な表情に戻る。）</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>（リリィが破片を丁寧に片付け、いつもの事務的な表情に戻る。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>lily_19</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>それなら仕方ありませんね。ゼクという男は、そういう生き物ですから。</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>それなら仕方ありませんね。ゼクという男は、そういう生き物ですから。</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>lily_20</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>……さあ、虚空の心臓の製作に取り掛かりましょう。時間がありません。</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>……さあ、虚空の心臓の製作に取り掛かりましょう。時間がありません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
           <t>narr_17</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>（リリィの尻尾だけが、不機嫌そうに床を叩いている。）</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="J82" t="inlineStr">
         <is>
           <t>（リリィの尻尾だけが、不機嫌そうに床を叩いている。）</t>
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="D80" t="inlineStr">
+    <row r="83">
+      <c r="D83" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>chitsii.arena.player.lily_bottle_confession,1</t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="D81" t="inlineStr">
+    <row r="84">
+      <c r="D84" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.Makuma2BlameZek();</t>
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="B82" t="inlineStr">
+    <row r="85">
+      <c r="B85" t="inlineStr">
         <is>
           <t>after_bottle</t>
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t>bottle_deny</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>narr_18</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>（リリィの表情が凍りつく。）</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>（リリィの表情が凍りつく。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>narr_19</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>（リリィの周囲に冷気のような波動が広がる。）</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>（リリィの周囲に冷気のような波動が広がる。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>lily_21</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>……そうですか。私の、管理ミス。</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>……そうですか。私の、管理ミス。</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>lily_22</t>
+          <t>narr_18</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>ふふふ……ええ、そうかもしれませんね。私が、あなたという『獣』を『人間』だと勘違いしていた。それが最大のミスでした。</t>
+          <t>（リリィの表情が凍りつく。）</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>ふふふ……ええ、そうかもしれませんね。私が、あなたという『獣』を『人間』だと勘違いしていた。それが最大のミスでした。</t>
+          <t>（リリィの表情が凍りつく。）</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
+          <t>narr_19</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>（リリィの周囲に氷のような魔力の波動が広がる。）</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>（リリィの周囲に氷のような魔力の波動が広がる。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>lily_21</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>……そうですか。私の、管理ミス。</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>……そうですか。私の、管理ミス。</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>lily_22</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>ふふふ……ええ、私が、あなたという『獣』を『人間』だと勘違いしていた。それが最大のミスでした。</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ふふふ……ええ、私が、あなたという『獣』を『人間』だと勘違いしていた。それが最大のミスでした。</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
           <t>lily_23</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>結構です。どうぞ、虚空の心臓でも何でも作って、アスタロト様に挑んでください。……私は、もうあなたに期待しません。</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr">
+      <c r="J91" t="inlineStr">
         <is>
           <t>結構です。どうぞ、虚空の心臓でも何でも作って、アスタロト様に挑んでください。……私は、もうあなたに期待しません。</t>
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="D89" t="inlineStr">
+    <row r="92">
+      <c r="D92" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>chitsii.arena.player.lily_bottle_confession,2</t>
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="D90" t="inlineStr">
+    <row r="93">
+      <c r="D93" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.Makuma2DenyInvolvement();</t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="B91" t="inlineStr">
+    <row r="94">
+      <c r="B94" t="inlineStr">
         <is>
           <t>after_bottle</t>
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+    <row r="95">
+      <c r="A95" t="inlineStr">
         <is>
           <t>after_bottle</t>
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="B93" t="inlineStr">
+    <row r="96">
+      <c r="B96" t="inlineStr">
         <is>
           <t>scene2_crafting</t>
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+    <row r="97">
+      <c r="A97" t="inlineStr">
         <is>
           <t>scene2_crafting</t>
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="D95" t="inlineStr">
+    <row r="98">
+      <c r="D98" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Crafting_Ambient");             var data = SoundManager.current.GetData("BGM/Crafting_Ambient");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Crafting_Ambient");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>lily_24</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>必要な素材は以下の通りです。</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>必要な素材は以下の通りです。</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>lily_25</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>**高品質な宝石×3**、**エーテルの結晶×5**、そしてゼクの店で購入できる**『星の断片』×1**。これらを『宝石細工』または『機械製作』の技術で練り上げてください。</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>**高品質な宝石×3**、**エーテルの結晶×5**、そしてゼクの店で購入できる**『星の断片』×1**。これらを『宝石細工』または『機械製作』の技術で練り上げてください。</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>lily_26</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>……完成したら、私に見せてください。台帳に記録し、ランクAへの挑戦権を授与いたします。</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>……完成したら、私に見せてください。台帳に記録し、ランクAへの挑戦権を授与いたします。</t>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Mystical_Ritual");             var data = SoundManager.current.GetData("BGM/Mystical_Ritual");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Mystical_Ritual");             }</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="F99" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>narr_20</t>
+          <t>lily_24</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>（プレースホルダー：ここで実際の製作処理を行う。）</t>
+          <t>必要な素材は以下の通りです。</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>（プレースホルダー：ここで実際の製作処理を行う。）</t>
+          <t>必要な素材は以下の通りです。</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>scene3_balgas_warning</t>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>lily_25</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>**心臓×1**と**ルーンモールド×1**。これらを私に渡してください。</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>**心臓×1**と**ルーンモールド×1**。これらを私に渡してください。</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>scene3_balgas_warning</t>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>lily_26</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>……素材が揃ったら、私が『虚空の心臓』を組み上げます。</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>……素材が揃ったら、私が『虚空の心臓』を組み上げます。</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="D102" t="inlineStr">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>check_materials</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>check_materials</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>lily_check</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>……さて、素材はお持ちですか？</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>……さて、素材はお持ちですか？</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>has_materials</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>hasItem,heart&amp;hasItem,rune_mold</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>c_give_materials</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>素材を渡す（心臓×1、ルーンモールド×1）</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>素材を渡す（心臓×1、ルーンモールド×1）</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>no_materials</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>c_no_materials</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>まだ揃っていない</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>まだ揃っていない</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>has_materials</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="D108" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_01");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_01");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_01");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>narr_21</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>（リリィとの打ち合わせを終え、素材を探しに出ようとするあなたの腕を、酒臭い、しかし岩のように力強い手が掴んだ。）</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>（リリィとの打ち合わせを終え、素材を探しに出ようとするあなたの腕を、酒臭い、しかし岩のように力強い手が掴んだ。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>narr_22</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>（バルガスだ。彼はあなたを人気の無い柱の影へと引きずり込み、周囲を警戒しながら低く、掠れた声で話し始めた。）</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>（バルガスだ。彼はあなたを人気の無い柱の影へと引きずり込み、周囲を警戒しながら低く、掠れた声で話し始めた。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>balgas_1</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>……おい、待て。リリィの女狐に言われるがまま、あいつ（ゼク）の店へ行くつもりか？</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>……おい、待て。リリィの女狐に言われるがまま、あいつ（ゼク）の店へ行くつもりか？</t>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>var heart = EClass.pc.things.Find(t =&gt; t.id == "heart"); if(heart != null) heart.Destroy();</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>balgas_2</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>最近のお前は、あいつの吐く『毒』を飲みすぎだ。ヌルの記憶チップだの、世界のバグだの……ゼクが語る『真実』ってのはな、お前の足を止めるための泥濘（ぬかるみ）なんだよ。</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>最近のお前は、あいつの吐く『毒』を飲みすぎだ。ヌルの記憶チップだの、世界のバグだの……ゼクが語る『真実』ってのはな、お前の足を止めるための泥濘（ぬかるみ）なんだよ。</t>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>var mold = EClass.pc.things.Find(t =&gt; t.id == "rune_mold"); if(mold != null) mold.Destroy();</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="F110" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>balgas_3</t>
+          <t>lily_take</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>あいつはな、ただの商人じゃねえ。……『剥製師（はくせいし）』なんだ。</t>
+          <t>……ありがとうございます。優秀ですこと。</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>あいつはな、ただの商人じゃねえ。……『剥製師（はくせいし）』なんだ。</t>
+          <t>……ありがとうございます。優秀ですこと。</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>balgas_4</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>英雄が絶望し、魂が折れる瞬間を待っている。そして、その『最も美しい瞬間』を切り取って、永遠にコレクションしやがる。</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>英雄が絶望し、魂が折れる瞬間を待っている。そして、その『最も美しい瞬間』を切り取って、永遠にコレクションしやがる。</t>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>crafting_complete</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>balgas_5</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>カインの時もそうだ……あいつはただ、お前が友を裏切るかどうかをニヤニヤしながら見てたんだよ。</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>カインの時もそうだ……あいつはただ、お前が友を裏切るかどうかをニヤニヤしながら見てたんだよ。</t>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>no_materials</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>check_kain</t>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>lily_no_mat</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>そうですか。素材がまだ揃っていないのですね。</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>そうですか。素材がまだ揃っていないのですね。</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>check_kain</t>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>lily_no_mat2</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>心臓は簡単でしょう。ルーンモールドは、ご自身で魔法石から磨き上げる必要があります。</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>心臓は簡単でしょう。ルーンモールドは、ご自身で魔法石から磨き上げる必要があります。</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>modInvoke</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>switch_flag(chitsii.arena.player.kain_soul_choice, after_kain, kain_event, after_kain)</t>
-        </is>
-      </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>lily_no_mat3</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>……揃ったらまた声をかけてくださいな。</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>……揃ったらまた声をかけてくださいな。</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>kain_event</t>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>narr_23</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>（バルガスは一瞬、言葉を止め、あなたを鋭く見つめる。）</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>（バルガスは一瞬、言葉を止め、あなたを鋭く見つめる。）</t>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>crafting_complete</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>balgas_6</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>……おい。一つ、聞いていいか。</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>……おい。一つ、聞いていいか。</t>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Tranquil");             var data = SoundManager.current.GetData("BGM/Lily_Tranquil");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Tranquil");             }</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="F119" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>balgas_7</t>
+          <t>narr_20</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>あの時……カインの魂の欠片。本当に、見つからなかったのか？</t>
+          <t>（リリィは素材を受け取ると、それらを机の上に並べた。）</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>あの時……カインの魂の欠片。本当に、見つからなかったのか？</t>
+          <t>（リリィは素材を受け取ると、それらを机の上に並べた。）</t>
         </is>
       </c>
     </row>
@@ -2419,239 +2389,189 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>narr_24</t>
+          <t>narr_20_1</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>（バルガスの手が微かに震えている。）</t>
+          <t>（彼女は素材に指先を当て、何やら呪文を唱え始める。）</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>（バルガスの手が微かに震えている。）</t>
+          <t>（彼女は素材に指先を当て、何やら呪文を唱え始める。）</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="F121" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>balgas_8</t>
+          <t>narr_20_2</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>いや……俺の勘違いかもしれねえ。だが、ゼクの野郎がやたらと上機嫌だった時期があってな。……まるで、『最高の獲物』を手に入れたような顔をしてやがった。</t>
+          <t>（心臓とルーンの鋳型が淡く光り、徐々に融合していく。）</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>いや……俺の勘違いかもしれねえ。だが、ゼクの野郎がやたらと上機嫌だった時期があってな。……まるで、『最高の獲物』を手に入れたような顔をしてやがった。</t>
+          <t>（心臓とルーンの鋳型が淡く光り、徐々に融合していく。）</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="F122" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>balgas_9</t>
+          <t>narr_20_3</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>……お前が、あいつに何か『売った』なんてことは……ないよな？</t>
+          <t>（数分後、淡い青白い光を放つ、拳大の結晶が完成した。）</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>……お前が、あいつに何か『売った』なんてことは……ないよな？</t>
+          <t>（数分後、淡い青白い光を放つ、拳大の結晶が完成した。）</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>kain_choice</t>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>lily_craft</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>……完成です。『虚空の心臓』。これがあれば、アスタロトの領域にも踏み込めるでしょう。</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>……完成です。『虚空の心臓』。これがあれば、アスタロトの領域にも踏み込めるでしょう。</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>kain_confess</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>c_kain_confess</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>……すまない。カインの魂を、ゼクに売った</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>……すまない。カインの魂を、ゼクに売った</t>
+          <t>scene3_balgas_warning</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>kain_lie</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>c_kain_lie</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>見つからなかった。ゼクとは関係ない</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>見つからなかった。ゼクとは関係ない</t>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>scene3_balgas_warning</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>kain_confess</t>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_01");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_01");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_01");             }</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>narr_25</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>（バルガスは深く息を吐き、拳を握りしめる。）</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>（バルガスは深く息を吐き、拳を握りしめる。）</t>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>narr_26</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>（バルガスの目に、怒りと失望、そして深い悲しみが宿る。）</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>（バルガスの目に、怒りと失望、そして深い悲しみが宿る。）</t>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>balgas_10</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>……そうか。お前は、俺の相棒を……カインを、二度殺したんだな。</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>……そうか。お前は、俺の相棒を……カインを、二度殺したんだな。</t>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="F130" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>balgas_11</t>
+          <t>narr_21</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>一度目は、異次元の錆に魂を食われて。二度目は、お前に売り飛ばされて。</t>
+          <t>（リリィとの打ち合わせを終え、素材を探しに出ようとするあなたの腕を、酒臭い、しかし岩のように力強い手が掴んだ。）</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>一度目は、異次元の錆に魂を食われて。二度目は、お前に売り飛ばされて。</t>
+          <t>（リリィとの打ち合わせを終え、素材を探しに出ようとするあなたの腕を、酒臭い、しかし岩のように力強い手が掴んだ。）</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="F131" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>balgas_12</t>
+          <t>narr_22</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>……ハッ、俺はなんてマヌケだ。お前を『カイン以上の戦士』だと思っちまってた。</t>
+          <t>（バルガスだ。彼はあなたを人気の無い柱の影へと引きずり込み、周囲を警戒しながら低く、掠れた声で話し始めた。）</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>……ハッ、俺はなんてマヌケだ。お前を『カイン以上の戦士』だと思っちまってた。</t>
+          <t>（バルガスだ。彼はあなたを人気の無い柱の影へと引きずり込み、周囲を警戒しながら低く、掠れた声で話し始めた。）</t>
         </is>
       </c>
     </row>
@@ -2663,17 +2583,17 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>balgas_13</t>
+          <t>balgas_1</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>……いいか、鴉。いや、もうお前を鴉とは呼ばねえ。俺はこれでも、裏切られ慣れてる。だから、お前を殺したりはしない。</t>
+          <t>……おい、待て。リリィに言われるがまま、ゼクの店へ行くつもりか？</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>……いいか、鴉。いや、もうお前を鴉とは呼ばねえ。俺はこれでも、裏切られ慣れてる。だから、お前を殺したりはしない。</t>
+          <t>……おい、待て。リリィに言われるがまま、ゼクの店へ行くつもりか？</t>
         </is>
       </c>
     </row>
@@ -2685,342 +2605,387 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>balgas_14</t>
+          <t>balgas_2</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>だが……もう二度と、俺に『友』として話しかけるな。お前は今日から、ただの『契約闘士』だ。それ以上でも、それ以下でもねえ。</t>
+          <t>最近のお前は、あいつの吐く『毒』を飲みすぎだ。ヌルの記憶チップだの、世界のバグだの……ゼクが語る『真実』ってのはな、お前の足を止めるための泥濘（ぬかるみ）なんだよ。</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>だが……もう二度と、俺に『友』として話しかけるな。お前は今日から、ただの『契約闘士』だ。それ以上でも、それ以下でもねえ。</t>
+          <t>最近のお前は、あいつの吐く『毒』を飲みすぎだ。ヌルの記憶チップだの、世界のバグだの……ゼクが語る『真実』ってのはな、お前の足を止めるための泥濘（ぬかるみ）なんだよ。</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.kain_soul_confession,0</t>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>balgas_3</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>あいつはな、ただの商人じゃねえ。……『剥製師（はくせいし）』なんだ。</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>あいつはな、ただの商人じゃねえ。……『剥製師（はくせいし）』なんだ。</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.Makuma2ConfessAboutKain();</t>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>balgas_4</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>英雄が絶望し、魂が折れる瞬間を待っている。そして、その『最も美しい瞬間』を切り取って、永遠にコレクションしやがる。</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>英雄が絶望し、魂が折れる瞬間を待っている。そして、その『最も美しい瞬間』を切り取って、永遠にコレクションしやがる。</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>after_kain</t>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>balgas_5</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>カインの時もそうだ……あいつはただ、お前が友を裏切るかどうかをニヤニヤしながら見てたんだよ。</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>カインの時もそうだ……あいつはただ、お前が友を裏切るかどうかをニヤニヤしながら見てたんだよ。</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>kain_lie</t>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>check_kain</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>narr_27</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>（バルガスは視線を逸らし、深く息を吐く。）</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>（バルガスは視線を逸らし、深く息を吐く。）</t>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>check_kain</t>
         </is>
       </c>
     </row>
     <row r="139">
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>switch_flag(chitsii.arena.player.kain_soul_choice, after_kain, kain_event, after_kain)</t>
+        </is>
+      </c>
       <c r="F139" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>narr_28</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>（バルガスが信じたいが、心の奥では真実を察している。）</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>（バルガスが信じたいが、心の奥では真実を察している。）</t>
-        </is>
-      </c>
     </row>
     <row r="140">
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>balgas_15</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>……そうか。</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>……そうか。</t>
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>kain_event</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="F141" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>balgas_16</t>
+          <t>narr_23</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>……なら、いい。……いや、よかねえな。俺の勘が外れてることを祈るよ。</t>
+          <t>（バルガスは一瞬、言葉を止め、あなたを鋭く見つめる。）</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>……なら、いい。……いや、よかねえな。俺の勘が外れてることを祈るよ。</t>
+          <t>（バルガスは一瞬、言葉を止め、あなたを鋭く見つめる。）</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="F142" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>narr_29</t>
+          <t>balgas_6</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>（バルガスがあなたの肩を叩くが、その手には以前のような力強さがない。）</t>
+          <t>……おい。一つ、聞いていいか。</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>（バルガスがあなたの肩を叩くが、その手には以前のような力強さがない。）</t>
+          <t>……おい。一つ、聞いていいか。</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.kain_soul_confession,1</t>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>balgas_7</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>あの時……カインの魂の欠片。本当に、見つからなかったのか？</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>あの時……カインの魂の欠片。本当に、見つからなかったのか？</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.Makuma2LieAboutKain();</t>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>narr_24</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>（バルガスの手が微かに震えている。）</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>（バルガスの手が微かに震えている。）</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>after_kain</t>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>balgas_8</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>いや……俺の勘違いかもしれねえ。だが、ゼクの野郎がやたらと上機嫌だった時期があってな。……まるで、『最高の獲物』を手に入れたような顔をしてやがった。</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>いや……俺の勘違いかもしれねえ。だが、ゼクの野郎がやたらと上機嫌だった時期があってな。……まるで、『最高の獲物』を手に入れたような顔をしてやがった。</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>after_kain</t>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>balgas_9</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>……お前が、あいつに何か『売った』なんてことは……ないよな？</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>……お前が、あいつに何か『売った』なんてことは……ないよな？</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>balgas_17</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>いいか、鴉……いや、戦鬼。あいつの言葉に耳を貸すな。真実なんてのは、アスタロトの首を獲った後に、自分の目で見りゃいい。</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>いいか、鴉……いや、戦鬼。あいつの言葉に耳を貸すな。真実なんてのは、アスタロトの首を獲った後に、自分の目で見りゃいい。</t>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>kain_choice</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>kain_confess</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>balgas_18</t>
+          <t>c_kain_confess</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>影に潜む奴に背中を見せるなよ。……お前まで『物言わぬコレクション』にされるのは、俺の酒が不味くなるからな。</t>
+          <t>……すまない。カインの魂を、ゼクに売った</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>影に潜む奴に背中を見せるなよ。……お前まで『物言わぬコレクション』にされるのは、俺の酒が不味くなるからな。</t>
+          <t>……すまない。カインの魂を、ゼクに売った</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>final_choice</t>
+          <t>kain_lie</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>c_kain_lie</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>見つからなかった。ゼクとは関係ない</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>見つからなかった。ゼクとは関係ない</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>final_thanks</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>c_final_thanks</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>……ありがとう</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>……ありがとう</t>
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>kain_confess</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>final_trust</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>c_final_trust</t>
+          <t>narr_25</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>バルガスの言葉を信じる</t>
+          <t>（バルガスは深く息を吐き、拳を握りしめる。）</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>バルガスの言葉を信じる</t>
+          <t>（バルガスは深く息を吐き、拳を握りしめる。）</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>final_knowledge</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>c_final_knowledge</t>
+          <t>narr_26</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>ゼクの知識をさらに求める</t>
+          <t>（バルガスの目に、怒りと失望、そして深い悲しみが宿る。）</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>ゼクの知識をさらに求める</t>
+          <t>（バルガスの目に、怒りと失望、そして深い悲しみが宿る。）</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>final_thanks</t>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>balgas_10</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>……そうか。お前は、俺の相棒を……カインを、二度殺したんだな。</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>……そうか。お前は、俺の相棒を……カインを、二度殺したんだな。</t>
         </is>
       </c>
     </row>
@@ -3032,31 +2997,61 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>balgas_r1</t>
+          <t>balgas_11</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>……気をつけろ。生きて戻ってこい。</t>
+          <t>一度目は、異次元の錆に魂を食われて。二度目は、お前に売り飛ばされて。</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>……気をつけろ。生きて戻ってこい。</t>
+          <t>一度目は、異次元の錆に魂を食われて。二度目は、お前に売り飛ばされて。</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>scene4_completion</t>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>balgas_12</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>……ハッ、俺はなんてマヌケだ。お前を『カイン以上の戦士』だと思っちまってた。</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>……ハッ、俺はなんてマヌケだ。お前を『カイン以上の戦士』だと思っちまってた。</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>final_trust</t>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>balgas_13</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>……いいか、鴉。いや、もうお前を鴉とは呼ばねえ。俺はこれでも、裏切られ慣れてる。だから、お前を殺したりはしない。</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>……いいか、鴉。いや、もうお前を鴉とは呼ばねえ。俺はこれでも、裏切られ慣れてる。だから、お前を殺したりはしない。</t>
         </is>
       </c>
     </row>
@@ -3068,324 +3063,724 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>balgas_r2</t>
+          <t>balgas_14</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>……よし。それでいい。</t>
+          <t>だが……もう二度と、俺に『友』として話しかけるな。お前は今日から、ただの『契約闘士』だ。それ以上でも、それ以下でもねえ。</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>……よし。それでいい。</t>
+          <t>だが……もう二度と、俺に『友』として話しかけるな。お前は今日から、ただの『契約闘士』だ。それ以上でも、それ以下でもねえ。</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="D158" t="inlineStr">
         <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.kain_soul_confession,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="D159" t="inlineStr">
+        <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.Makuma2ChooseTrust();</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>scene4_completion</t>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.Makuma2ConfessAboutKain();</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>final_knowledge</t>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>after_kain</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="F161" t="inlineStr">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>kain_lie</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>narr_27</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>（バルガスは視線を逸らし、深く息を吐く。）</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>（バルガスは視線を逸らし、深く息を吐く。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>narr_28</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>（バルガスが信じたいが、心の奥では真実を察している。）</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>（バルガスが信じたいが、心の奥では真実を察している。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="F164" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>balgas_r3</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>……ケッ、お前の好きにしろ。だが、後悔するなよ。</t>
-        </is>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>……ケッ、お前の好きにしろ。だが、後悔するなよ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.Makuma2ChooseKnowledge();</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>scene4_completion</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>scene4_completion</t>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>balgas_15</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>……そうか。</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>……そうか。</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Tranquil");             var data = SoundManager.current.GetData("BGM/Lily_Tranquil");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Tranquil");             }</t>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>balgas_16</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>……なら、いい。……いや、よかねえな。俺の勘が外れてることを祈るよ。</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>……なら、いい。……いや、よかねえな。俺の勘が外れてることを祈るよ。</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>narr_29</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>（バルガスがあなたの肩を叩くが、その手には以前のような力強さがない。）</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>（バルガスがあなたの肩を叩くが、その手には以前のような力強さがない。）</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="D167" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>setFlag</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>chitsii.arena.player.kain_soul_confession,1</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="D168" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>Elin_SukutsuArena.ArenaManager.Makuma2LieAboutKain();</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>narr_30</t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>（素材を集め、虚空の心臓を完成させたあなた。それを手にしたあなたは、リリィのもとへ向かう。）</t>
-        </is>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>（素材を集め、虚空の心臓を完成させたあなた。それを手にしたあなたは、リリィのもとへ向かう。）</t>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>after_kain</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>lily_27</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>……完成したのですね。見せてください。</t>
-        </is>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>……完成したのですね。見せてください。</t>
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>after_kain</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="F171" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>narr_31</t>
+          <t>balgas_17</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>（リリィが虚空の心臓を手に取り、魔力を流し込む。）</t>
+          <t>いいか、鴉……いや、戦鬼。あいつの言葉に耳を貸すな。真実なんてのは、アスタロトの首を獲った後に、自分の目で見りゃいい。</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>（リリィが虚空の心臓を手に取り、魔力を流し込む。）</t>
+          <t>いいか、鴉……いや、戦鬼。あいつの言葉に耳を貸すな。真実なんてのは、アスタロトの首を獲った後に、自分の目で見りゃいい。</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="F172" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
+          <t>balgas_18</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>影に潜む奴に背中を見せるなよ。……お前まで『物言わぬコレクション』にされるのは、俺の酒が不味くなるからな。</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>影に潜む奴に背中を見せるなよ。……お前まで『物言わぬコレクション』にされるのは、俺の酒が不味くなるからな。</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>final_choice</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>final_thanks</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>c_final_thanks</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>……ありがとう</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>……ありがとう</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>final_trust</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>c_final_trust</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>バルガスの言葉を信じる</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>バルガスの言葉を信じる</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>final_knowledge</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>c_final_knowledge</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>ゼクの知識をさらに求める</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>ゼクの知識をさらに求める</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>final_thanks</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>balgas_r1</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>……気をつけろ。生きて戻ってこい。</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>……気をつけろ。生きて戻ってこい。</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>scene4_completion</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>final_trust</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>balgas_r2</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>……よし。それでいい。</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>……よし。それでいい。</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.Makuma2ChooseTrust();</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>scene4_completion</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>final_knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>balgas_r3</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>……ケッ、お前の好きにしろ。だが、後悔するなよ。</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>……ケッ、お前の好きにしろ。だが、後悔するなよ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.Makuma2ChooseKnowledge();</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>scene4_completion</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>scene4_completion</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Tranquil");             var data = SoundManager.current.GetData("BGM/Lily_Tranquil");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Tranquil");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>narr_30</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>（素材を集め、虚空の心臓を完成させたあなた。それを手にしたあなたは、リリィのもとへ向かう。）</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>（素材を集め、虚空の心臓を完成させたあなた。それを手にしたあなたは、リリィのもとへ向かう。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>lily_27</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>……完成したのですね。見せてください。</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>……完成したのですね。見せてください。</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>narr_31</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>（リリィが虚空の心臓を手に取り、魔力を流し込む。）</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>（リリィが虚空の心臓を手に取り、魔力を流し込む。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
           <t>lily_28</t>
         </is>
       </c>
-      <c r="I172" t="inlineStr">
+      <c r="I196" t="inlineStr">
         <is>
           <t>……完璧です。あなたの魔力と技術が、この異次元の構造を支える楔となりました。</t>
         </is>
       </c>
-      <c r="J172" t="inlineStr">
+      <c r="J196" t="inlineStr">
         <is>
           <t>……完璧です。あなたの魔力と技術が、この異次元の構造を支える楔となりました。</t>
         </is>
       </c>
     </row>
-    <row r="173">
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H173" t="inlineStr">
+    <row r="197">
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
         <is>
           <t>lily_29</t>
         </is>
       </c>
-      <c r="I173" t="inlineStr">
+      <c r="I197" t="inlineStr">
         <is>
           <t>これで、ランクAへの挑戦権を授与いたします。……ふふ、あなたは既に、この異次元の一部となりました。誇っていいですよ。</t>
         </is>
       </c>
-      <c r="J173" t="inlineStr">
+      <c r="J197" t="inlineStr">
         <is>
           <t>これで、ランクAへの挑戦権を授与いたします。……ふふ、あなたは既に、この異次元の一部となりました。誇っていいですよ。</t>
         </is>
       </c>
     </row>
-    <row r="174">
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H174" t="inlineStr">
+    <row r="198">
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
         <is>
           <t>narr_32</t>
         </is>
       </c>
-      <c r="I174" t="inlineStr">
+      <c r="I198" t="inlineStr">
         <is>
           <t>（彼女は台帳に何かを書き込む。）</t>
         </is>
       </c>
-      <c r="J174" t="inlineStr">
+      <c r="J198" t="inlineStr">
         <is>
           <t>（彼女は台帳に何かを書き込む。）</t>
         </is>
       </c>
     </row>
-    <row r="175">
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H175" t="inlineStr">
+    <row r="199">
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
         <is>
           <t>lily_30</t>
         </is>
       </c>
-      <c r="I175" t="inlineStr">
+      <c r="I199" t="inlineStr">
         <is>
           <t>報酬として、**小さなコイン30枚**と**プラチナコイン15枚**を記録いたします。……それと、あなたは『虚空と共鳴する者』としての称号を獲得しました。</t>
         </is>
       </c>
-      <c r="J175" t="inlineStr">
+      <c r="J199" t="inlineStr">
         <is>
           <t>報酬として、**小さなコイン30枚**と**プラチナコイン15枚**を記録いたします。……それと、あなたは『虚空と共鳴する者』としての称号を獲得しました。</t>
         </is>
       </c>
     </row>
-    <row r="176">
-      <c r="D176" t="inlineStr">
+    <row r="200">
+      <c r="D200" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.GrantMakuma2Reward();</t>
         </is>
       </c>
     </row>
-    <row r="177">
-      <c r="B177" t="inlineStr">
+    <row r="201">
+      <c r="B201" t="inlineStr">
         <is>
           <t>ending</t>
         </is>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
+    <row r="202">
+      <c r="A202" t="inlineStr">
         <is>
           <t>ending</t>
         </is>
       </c>
     </row>
-    <row r="179">
-      <c r="D179" t="inlineStr">
+    <row r="203">
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>complete_quest(13_makuma2)</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="D204" t="inlineStr">
         <is>
           <t>end</t>
         </is>
